--- a/test_data/发票.xlsx
+++ b/test_data/发票.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="9390" activeTab="2"/>
+    <workbookView windowWidth="28080" windowHeight="14070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="记收普票测试数据" sheetId="1" r:id="rId1"/>
     <sheet name="记收专票测试数据" sheetId="2" r:id="rId2"/>
     <sheet name="记开票测试数据" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -435,9 +437,336 @@
     <t xml:space="preserve">普票-内部代表-采购-商品产品-管理部门-11 </t>
   </si>
   <si>
+    <t>发票类别</t>
+  </si>
+  <si>
+    <t>进项税类别</t>
+  </si>
+  <si>
+    <t>专票</t>
+  </si>
+  <si>
+    <t>322.11</t>
+  </si>
+  <si>
+    <t>专票-内部代表-薪资福利-福利费-管理部门</t>
+  </si>
+  <si>
+    <t>有形动产租赁</t>
+  </si>
+  <si>
+    <t>322.21</t>
+  </si>
+  <si>
+    <t>专票-内部代表-行政支出-招待费-管理部门</t>
+  </si>
+  <si>
+    <t>不动产租赁服务</t>
+  </si>
+  <si>
+    <t>322.22</t>
+  </si>
+  <si>
+    <t>专票-内部代表-行政支出-办公费-管理部门</t>
+  </si>
+  <si>
+    <t>电信服务</t>
+  </si>
+  <si>
+    <t>322.23</t>
+  </si>
+  <si>
+    <t>运输服务</t>
+  </si>
+  <si>
+    <t>322.24</t>
+  </si>
+  <si>
+    <t>专票-内部代表-行政支出-通讯费-管理部门</t>
+  </si>
+  <si>
+    <t>322.25</t>
+  </si>
+  <si>
+    <t>专票-内部代表-行政支出-维修费-管理部门</t>
+  </si>
+  <si>
+    <t>322.26</t>
+  </si>
+  <si>
+    <t>专票-内部代表-行政支出-财产保险-管理部门</t>
+  </si>
+  <si>
+    <t>建筑安装服务</t>
+  </si>
+  <si>
+    <t>322.27</t>
+  </si>
+  <si>
+    <t>专票-内部代表-行政支出-设备租赁费-管理部门</t>
+  </si>
+  <si>
+    <t>金融保险服务</t>
+  </si>
+  <si>
+    <t>322.28</t>
+  </si>
+  <si>
+    <t>专票-内部代表-行政支出-银行费用-管理部门</t>
+  </si>
+  <si>
+    <t>322.31</t>
+  </si>
+  <si>
+    <t>专票-内部代表-差旅交通-差旅费-管理部门</t>
+  </si>
+  <si>
+    <t>322.32</t>
+  </si>
+  <si>
+    <t>专票-内部代表-差旅交通-交通费-管理部门</t>
+  </si>
+  <si>
+    <t>322.33</t>
+  </si>
+  <si>
+    <t>专票-内部代表-差旅交通-汽油费-管理部门</t>
+  </si>
+  <si>
+    <t>322.34</t>
+  </si>
+  <si>
+    <t>专票-内部代表-差旅交通-路桥费-管理部门</t>
+  </si>
+  <si>
+    <t>322.35</t>
+  </si>
+  <si>
+    <t>专票-内部代表-差旅交通-汽车维修费-管理部门</t>
+  </si>
+  <si>
+    <t>322.36</t>
+  </si>
+  <si>
+    <t>专票-内部代表-差旅交通-汽车保险费-管理部门</t>
+  </si>
+  <si>
+    <t>货物及加工，修理修配劳务</t>
+  </si>
+  <si>
+    <t>322.37</t>
+  </si>
+  <si>
+    <t>专票-内部代表-差旅交通-物流费-管理部门</t>
+  </si>
+  <si>
+    <t>322.41</t>
+  </si>
+  <si>
+    <t>专票-内部代表-房租物业-房租费-管理部门</t>
+  </si>
+  <si>
+    <t>生活服务</t>
+  </si>
+  <si>
+    <t>322.42</t>
+  </si>
+  <si>
+    <t>专票-内部代表-房租物业-物业费-管理部门</t>
+  </si>
+  <si>
+    <t>322.43</t>
+  </si>
+  <si>
+    <t>专票-内部代表-房租物业-水费-管理部门</t>
+  </si>
+  <si>
+    <t>322.44</t>
+  </si>
+  <si>
+    <t>专票-内部代表-房租物业-电费-管理部门</t>
+  </si>
+  <si>
+    <t>322.45</t>
+  </si>
+  <si>
+    <t>专票-内部代表-房租物业-仓储费-管理部门</t>
+  </si>
+  <si>
+    <t>322.46</t>
+  </si>
+  <si>
+    <t>专票-内部代表-房租物业-装修费-管理部门</t>
+  </si>
+  <si>
+    <t>322.51</t>
+  </si>
+  <si>
+    <t>专票-内部代表-经营支出-广告费-管理部门-管理部门</t>
+  </si>
+  <si>
+    <t>322.52</t>
+  </si>
+  <si>
+    <t>专票-内部代表-经营支出-宣传费-管理部门-管理部门</t>
+  </si>
+  <si>
+    <t>322.53</t>
+  </si>
+  <si>
+    <t>专票-内部代表-经营支出-研发费-管理部门-管理部门</t>
+  </si>
+  <si>
+    <t>322.54</t>
+  </si>
+  <si>
+    <t>专票-内部代表-经营支出-会议费-管理部门-管理部门</t>
+  </si>
+  <si>
+    <t>322.55</t>
+  </si>
+  <si>
+    <t>专票-内部代表-经营支出-服务费-管理部门-管理部门</t>
+  </si>
+  <si>
+    <t>322.56</t>
+  </si>
+  <si>
+    <t>专票-内部代表-经营支出-咨询费-管理部门-管理部门</t>
+  </si>
+  <si>
+    <t>322.57</t>
+  </si>
+  <si>
+    <t>专票-内部代表-经营支出-认证费-管理部门-管理部门</t>
+  </si>
+  <si>
+    <t>322.58</t>
+  </si>
+  <si>
+    <t>专票-内部代表-经营支出-专利费-管理部门-管理部门</t>
+  </si>
+  <si>
+    <t>322.59</t>
+  </si>
+  <si>
+    <t>专票-内部代表-经营支出-工会经费-管理部门-管理部门</t>
+  </si>
+  <si>
+    <t>322.510</t>
+  </si>
+  <si>
+    <t>专票-内部代表-经营支出-其他-管理部门-管理部门</t>
+  </si>
+  <si>
+    <t>322.61</t>
+  </si>
+  <si>
+    <t>专票-内部代表-采购-原材料-管理部门-管理部门</t>
+  </si>
+  <si>
+    <t>322.62</t>
+  </si>
+  <si>
+    <t>专票-内部代表-采购-商品产品-管理部门-管理部门</t>
+  </si>
+  <si>
+    <t>发票状态</t>
+  </si>
+  <si>
+    <t>税控自开</t>
+  </si>
+  <si>
+    <t>商品销售</t>
+  </si>
+  <si>
+    <t>4102.11</t>
+  </si>
+  <si>
+    <t>普票-税控自开-内部代表-商品销售-管理部门</t>
+  </si>
+  <si>
+    <t>税务代开</t>
+  </si>
+  <si>
+    <t>服务收入</t>
+  </si>
+  <si>
+    <t>4112.21</t>
+  </si>
+  <si>
+    <t>普票-税控代开-内部代表-服务收入-管理部门</t>
+  </si>
+  <si>
+    <t>4202.11</t>
+  </si>
+  <si>
+    <t>专票-税控自开-内部代表-商品销售-管理部门</t>
+  </si>
+  <si>
+    <t>4212.21</t>
+  </si>
+  <si>
+    <t>专票-税控代开-内部代表-服务收入-管理部门</t>
+  </si>
+  <si>
+    <t>无票</t>
+  </si>
+  <si>
+    <t>未开发票</t>
+  </si>
+  <si>
+    <t>4332.11</t>
+  </si>
+  <si>
+    <t>无票-未开发票-内部代表-商品销售-管理部门</t>
+  </si>
+  <si>
+    <t>4332.21</t>
+  </si>
+  <si>
+    <t>无票-未开发票-内部代表-服务收入-管理部门</t>
+  </si>
+  <si>
     <t>销售部门</t>
   </si>
   <si>
+    <t>4101.11</t>
+  </si>
+  <si>
+    <t>普票-税控自开-内部代表-商品销售-销售部门</t>
+  </si>
+  <si>
+    <t>4111.21</t>
+  </si>
+  <si>
+    <t>普票-税控代开-内部代表-服务收入-销售部门</t>
+  </si>
+  <si>
+    <t>4201.11</t>
+  </si>
+  <si>
+    <t>专票-税控自开-内部代表-商品销售-销售部门</t>
+  </si>
+  <si>
+    <t>4211.21</t>
+  </si>
+  <si>
+    <t>专票-税控代开-内部代表-服务收入-销售部门</t>
+  </si>
+  <si>
+    <t>4331.11</t>
+  </si>
+  <si>
+    <t>无票-未开发票-内部代表-商品销售-销售部门</t>
+  </si>
+  <si>
+    <t>4331.21</t>
+  </si>
+  <si>
+    <t>无票-未开发票-内部代表-服务收入-销售部门</t>
+  </si>
+  <si>
     <t>311.11</t>
   </si>
   <si>
@@ -678,240 +1007,6 @@
     <t xml:space="preserve">普票-内部代表-采购-商品产品-销售部门-11 </t>
   </si>
   <si>
-    <t>发票类别</t>
-  </si>
-  <si>
-    <t>进项税类别</t>
-  </si>
-  <si>
-    <t>专票</t>
-  </si>
-  <si>
-    <t>322.11</t>
-  </si>
-  <si>
-    <t>专票-内部代表-薪资福利-福利费-管理部门</t>
-  </si>
-  <si>
-    <t>有形动产租赁</t>
-  </si>
-  <si>
-    <t>322.21</t>
-  </si>
-  <si>
-    <t>专票-内部代表-行政支出-招待费-管理部门</t>
-  </si>
-  <si>
-    <t>不动产租赁服务</t>
-  </si>
-  <si>
-    <t>322.22</t>
-  </si>
-  <si>
-    <t>专票-内部代表-行政支出-办公费-管理部门</t>
-  </si>
-  <si>
-    <t>电信服务</t>
-  </si>
-  <si>
-    <t>322.23</t>
-  </si>
-  <si>
-    <t>运输服务</t>
-  </si>
-  <si>
-    <t>322.24</t>
-  </si>
-  <si>
-    <t>专票-内部代表-行政支出-通讯费-管理部门</t>
-  </si>
-  <si>
-    <t>322.25</t>
-  </si>
-  <si>
-    <t>专票-内部代表-行政支出-维修费-管理部门</t>
-  </si>
-  <si>
-    <t>322.26</t>
-  </si>
-  <si>
-    <t>专票-内部代表-行政支出-财产保险-管理部门</t>
-  </si>
-  <si>
-    <t>建筑安装服务</t>
-  </si>
-  <si>
-    <t>322.27</t>
-  </si>
-  <si>
-    <t>专票-内部代表-行政支出-设备租赁费-管理部门</t>
-  </si>
-  <si>
-    <t>金融保险服务</t>
-  </si>
-  <si>
-    <t>322.28</t>
-  </si>
-  <si>
-    <t>专票-内部代表-行政支出-银行费用-管理部门</t>
-  </si>
-  <si>
-    <t>322.31</t>
-  </si>
-  <si>
-    <t>专票-内部代表-差旅交通-差旅费-管理部门</t>
-  </si>
-  <si>
-    <t>322.32</t>
-  </si>
-  <si>
-    <t>专票-内部代表-差旅交通-交通费-管理部门</t>
-  </si>
-  <si>
-    <t>322.33</t>
-  </si>
-  <si>
-    <t>专票-内部代表-差旅交通-汽油费-管理部门</t>
-  </si>
-  <si>
-    <t>322.34</t>
-  </si>
-  <si>
-    <t>专票-内部代表-差旅交通-路桥费-管理部门</t>
-  </si>
-  <si>
-    <t>322.35</t>
-  </si>
-  <si>
-    <t>专票-内部代表-差旅交通-汽车维修费-管理部门</t>
-  </si>
-  <si>
-    <t>322.36</t>
-  </si>
-  <si>
-    <t>专票-内部代表-差旅交通-汽车保险费-管理部门</t>
-  </si>
-  <si>
-    <t>货物及加工，修理修配劳务</t>
-  </si>
-  <si>
-    <t>322.37</t>
-  </si>
-  <si>
-    <t>专票-内部代表-差旅交通-物流费-管理部门</t>
-  </si>
-  <si>
-    <t>322.41</t>
-  </si>
-  <si>
-    <t>专票-内部代表-房租物业-房租费-管理部门</t>
-  </si>
-  <si>
-    <t>生活服务</t>
-  </si>
-  <si>
-    <t>322.42</t>
-  </si>
-  <si>
-    <t>专票-内部代表-房租物业-物业费-管理部门</t>
-  </si>
-  <si>
-    <t>322.43</t>
-  </si>
-  <si>
-    <t>专票-内部代表-房租物业-水费-管理部门</t>
-  </si>
-  <si>
-    <t>322.44</t>
-  </si>
-  <si>
-    <t>专票-内部代表-房租物业-电费-管理部门</t>
-  </si>
-  <si>
-    <t>322.45</t>
-  </si>
-  <si>
-    <t>专票-内部代表-房租物业-仓储费-管理部门</t>
-  </si>
-  <si>
-    <t>322.46</t>
-  </si>
-  <si>
-    <t>专票-内部代表-房租物业-装修费-管理部门</t>
-  </si>
-  <si>
-    <t>322.51</t>
-  </si>
-  <si>
-    <t>专票-内部代表-经营支出-广告费-管理部门-管理部门</t>
-  </si>
-  <si>
-    <t>322.52</t>
-  </si>
-  <si>
-    <t>专票-内部代表-经营支出-宣传费-管理部门-管理部门</t>
-  </si>
-  <si>
-    <t>322.53</t>
-  </si>
-  <si>
-    <t>专票-内部代表-经营支出-研发费-管理部门-管理部门</t>
-  </si>
-  <si>
-    <t>322.54</t>
-  </si>
-  <si>
-    <t>专票-内部代表-经营支出-会议费-管理部门-管理部门</t>
-  </si>
-  <si>
-    <t>322.55</t>
-  </si>
-  <si>
-    <t>专票-内部代表-经营支出-服务费-管理部门-管理部门</t>
-  </si>
-  <si>
-    <t>322.56</t>
-  </si>
-  <si>
-    <t>专票-内部代表-经营支出-咨询费-管理部门-管理部门</t>
-  </si>
-  <si>
-    <t>322.57</t>
-  </si>
-  <si>
-    <t>专票-内部代表-经营支出-认证费-管理部门-管理部门</t>
-  </si>
-  <si>
-    <t>322.58</t>
-  </si>
-  <si>
-    <t>专票-内部代表-经营支出-专利费-管理部门-管理部门</t>
-  </si>
-  <si>
-    <t>322.59</t>
-  </si>
-  <si>
-    <t>专票-内部代表-经营支出-工会经费-管理部门-管理部门</t>
-  </si>
-  <si>
-    <t>322.510</t>
-  </si>
-  <si>
-    <t>专票-内部代表-经营支出-其他-管理部门-管理部门</t>
-  </si>
-  <si>
-    <t>322.61</t>
-  </si>
-  <si>
-    <t>专票-内部代表-采购-原材料-管理部门-管理部门</t>
-  </si>
-  <si>
-    <t>322.62</t>
-  </si>
-  <si>
-    <t>专票-内部代表-采购-商品产品-管理部门-管理部门</t>
-  </si>
-  <si>
     <t>321.11</t>
   </si>
   <si>
@@ -1111,99 +1206,6 @@
   </si>
   <si>
     <t>专票-内部代表-采购-商品产品-销售部门-销售部门</t>
-  </si>
-  <si>
-    <t>发票状态</t>
-  </si>
-  <si>
-    <t>税控自开</t>
-  </si>
-  <si>
-    <t>商品销售</t>
-  </si>
-  <si>
-    <t>4102.11</t>
-  </si>
-  <si>
-    <t>普票-税控自开-内部代表-商品销售-管理部门</t>
-  </si>
-  <si>
-    <t>税务代开</t>
-  </si>
-  <si>
-    <t>服务收入</t>
-  </si>
-  <si>
-    <t>4112.21</t>
-  </si>
-  <si>
-    <t>普票-税控代开-内部代表-服务收入-管理部门</t>
-  </si>
-  <si>
-    <t>4202.11</t>
-  </si>
-  <si>
-    <t>专票-税控自开-内部代表-商品销售-管理部门</t>
-  </si>
-  <si>
-    <t>4212.21</t>
-  </si>
-  <si>
-    <t>专票-税控代开-内部代表-服务收入-管理部门</t>
-  </si>
-  <si>
-    <t>无票</t>
-  </si>
-  <si>
-    <t>未开发票</t>
-  </si>
-  <si>
-    <t>4332.11</t>
-  </si>
-  <si>
-    <t>无票-未开发票-内部代表-商品销售-管理部门</t>
-  </si>
-  <si>
-    <t>4332.21</t>
-  </si>
-  <si>
-    <t>无票-未开发票-内部代表-服务收入-管理部门</t>
-  </si>
-  <si>
-    <t>4101.11</t>
-  </si>
-  <si>
-    <t>普票-税控自开-内部代表-商品销售-销售部门</t>
-  </si>
-  <si>
-    <t>4111.21</t>
-  </si>
-  <si>
-    <t>普票-税控代开-内部代表-服务收入-销售部门</t>
-  </si>
-  <si>
-    <t>4201.11</t>
-  </si>
-  <si>
-    <t>专票-税控自开-内部代表-商品销售-销售部门</t>
-  </si>
-  <si>
-    <t>4211.21</t>
-  </si>
-  <si>
-    <t>专票-税控代开-内部代表-服务收入-销售部门</t>
-  </si>
-  <si>
-    <t>4331.11</t>
-  </si>
-  <si>
-    <t>无票-未开发票-内部代表-商品销售-销售部门</t>
-  </si>
-  <si>
-    <t>4331.21</t>
-  </si>
-  <si>
-    <t>无票-未开发票-内部代表-服务收入-销售部门</t>
   </si>
 </sst>
 </file>
@@ -1225,7 +1227,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1233,6 +1234,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1695,7 +1697,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1704,10 +1706,10 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1716,7 +1718,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1725,13 +1727,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1840,26 +1842,38 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
@@ -1868,25 +1882,19 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2237,10 +2245,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2252,34 +2260,34 @@
     <col min="8" max="8" width="48.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="7" customFormat="1" spans="1:8">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
@@ -2294,10 +2302,10 @@
       <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="14" t="s">
         <v>14</v>
       </c>
       <c r="H2" t="s">
@@ -2305,7 +2313,7 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
@@ -2320,10 +2328,10 @@
       <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="14" t="s">
         <v>18</v>
       </c>
       <c r="H3" t="s">
@@ -2331,7 +2339,7 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
@@ -2346,10 +2354,10 @@
       <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="14" t="s">
         <v>22</v>
       </c>
       <c r="H4" t="s">
@@ -2357,7 +2365,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
@@ -2372,10 +2380,10 @@
       <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="14" t="s">
         <v>26</v>
       </c>
       <c r="H5" t="s">
@@ -2383,7 +2391,7 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
@@ -2398,10 +2406,10 @@
       <c r="E6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="14" t="s">
         <v>30</v>
       </c>
       <c r="H6" t="s">
@@ -2409,7 +2417,7 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
@@ -2424,10 +2432,10 @@
       <c r="E7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="14" t="s">
         <v>34</v>
       </c>
       <c r="H7" t="s">
@@ -2435,7 +2443,7 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
@@ -2450,10 +2458,10 @@
       <c r="E8" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="14" t="s">
         <v>38</v>
       </c>
       <c r="H8" t="s">
@@ -2461,7 +2469,7 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -2476,10 +2484,10 @@
       <c r="E9" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="14" t="s">
         <v>41</v>
       </c>
       <c r="H9" t="s">
@@ -2487,7 +2495,7 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -2502,10 +2510,10 @@
       <c r="E10" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="14" t="s">
         <v>44</v>
       </c>
       <c r="H10" t="s">
@@ -2513,7 +2521,7 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B11" t="s">
@@ -2528,10 +2536,10 @@
       <c r="E11" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="14" t="s">
         <v>47</v>
       </c>
       <c r="H11" t="s">
@@ -2539,7 +2547,7 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B12" t="s">
@@ -2554,10 +2562,10 @@
       <c r="E12" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="14" t="s">
         <v>50</v>
       </c>
       <c r="H12" t="s">
@@ -2565,7 +2573,7 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B13" t="s">
@@ -2580,10 +2588,10 @@
       <c r="E13" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="14" t="s">
         <v>53</v>
       </c>
       <c r="H13" t="s">
@@ -2591,7 +2599,7 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B14" t="s">
@@ -2606,10 +2614,10 @@
       <c r="E14" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="14" t="s">
         <v>56</v>
       </c>
       <c r="H14" t="s">
@@ -2617,7 +2625,7 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B15" t="s">
@@ -2632,10 +2640,10 @@
       <c r="E15" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="14" t="s">
         <v>59</v>
       </c>
       <c r="H15" t="s">
@@ -2643,7 +2651,7 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B16" t="s">
@@ -2658,10 +2666,10 @@
       <c r="E16" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="14" t="s">
         <v>62</v>
       </c>
       <c r="H16" t="s">
@@ -2669,7 +2677,7 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B17" t="s">
@@ -2684,10 +2692,10 @@
       <c r="E17" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="14" t="s">
         <v>65</v>
       </c>
       <c r="H17" t="s">
@@ -2695,7 +2703,7 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B18" t="s">
@@ -2710,10 +2718,10 @@
       <c r="E18" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="14" t="s">
         <v>68</v>
       </c>
       <c r="H18" t="s">
@@ -2721,7 +2729,7 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B19" t="s">
@@ -2736,10 +2744,10 @@
       <c r="E19" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="14" t="s">
         <v>71</v>
       </c>
       <c r="H19" t="s">
@@ -2747,7 +2755,7 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B20" t="s">
@@ -2762,10 +2770,10 @@
       <c r="E20" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="14" t="s">
         <v>74</v>
       </c>
       <c r="H20" t="s">
@@ -2773,7 +2781,7 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B21" t="s">
@@ -2788,10 +2796,10 @@
       <c r="E21" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="14" t="s">
         <v>77</v>
       </c>
       <c r="H21" t="s">
@@ -2799,7 +2807,7 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B22" t="s">
@@ -2814,10 +2822,10 @@
       <c r="E22" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="14" t="s">
         <v>80</v>
       </c>
       <c r="H22" t="s">
@@ -2825,7 +2833,7 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B23" t="s">
@@ -2840,10 +2848,10 @@
       <c r="E23" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="14" t="s">
         <v>83</v>
       </c>
       <c r="H23" t="s">
@@ -2851,7 +2859,7 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B24" t="s">
@@ -2866,10 +2874,10 @@
       <c r="E24" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F24" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="14" t="s">
         <v>86</v>
       </c>
       <c r="H24" t="s">
@@ -2877,7 +2885,7 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B25" t="s">
@@ -2892,10 +2900,10 @@
       <c r="E25" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G25" s="14" t="s">
         <v>89</v>
       </c>
       <c r="H25" t="s">
@@ -2903,7 +2911,7 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B26" t="s">
@@ -2918,10 +2926,10 @@
       <c r="E26" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="F26" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="G26" s="14" t="s">
         <v>92</v>
       </c>
       <c r="H26" t="s">
@@ -2929,7 +2937,7 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B27" t="s">
@@ -2944,10 +2952,10 @@
       <c r="E27" t="s">
         <v>12</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="F27" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G27" s="14" t="s">
         <v>95</v>
       </c>
       <c r="H27" t="s">
@@ -2955,7 +2963,7 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B28" t="s">
@@ -2970,10 +2978,10 @@
       <c r="E28" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="F28" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="G28" s="14" t="s">
         <v>98</v>
       </c>
       <c r="H28" t="s">
@@ -2981,7 +2989,7 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B29" t="s">
@@ -2996,10 +3004,10 @@
       <c r="E29" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="11" t="s">
+      <c r="F29" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="G29" s="11" t="s">
+      <c r="G29" s="14" t="s">
         <v>101</v>
       </c>
       <c r="H29" t="s">
@@ -3007,7 +3015,7 @@
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B30" t="s">
@@ -3022,10 +3030,10 @@
       <c r="E30" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G30" s="11" t="s">
+      <c r="G30" s="14" t="s">
         <v>104</v>
       </c>
       <c r="H30" t="s">
@@ -3033,7 +3041,7 @@
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B31" t="s">
@@ -3048,10 +3056,10 @@
       <c r="E31" t="s">
         <v>12</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="F31" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G31" s="11" t="s">
+      <c r="G31" s="14" t="s">
         <v>107</v>
       </c>
       <c r="H31" t="s">
@@ -3059,7 +3067,7 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B32" t="s">
@@ -3074,10 +3082,10 @@
       <c r="E32" t="s">
         <v>12</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="F32" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G32" s="11" t="s">
+      <c r="G32" s="14" t="s">
         <v>110</v>
       </c>
       <c r="H32" t="s">
@@ -3085,7 +3093,7 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B33" t="s">
@@ -3100,10 +3108,10 @@
       <c r="E33" t="s">
         <v>12</v>
       </c>
-      <c r="F33" s="11" t="s">
+      <c r="F33" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G33" s="11" t="s">
+      <c r="G33" s="14" t="s">
         <v>113</v>
       </c>
       <c r="H33" t="s">
@@ -3111,7 +3119,7 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B34" t="s">
@@ -3126,10 +3134,10 @@
       <c r="E34" t="s">
         <v>12</v>
       </c>
-      <c r="F34" s="11" t="s">
+      <c r="F34" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G34" s="11" t="s">
+      <c r="G34" s="14" t="s">
         <v>116</v>
       </c>
       <c r="H34" t="s">
@@ -3137,7 +3145,7 @@
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B35" t="s">
@@ -3152,10 +3160,10 @@
       <c r="E35" t="s">
         <v>12</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="F35" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G35" s="11" t="s">
+      <c r="G35" s="14" t="s">
         <v>119</v>
       </c>
       <c r="H35" t="s">
@@ -3163,7 +3171,7 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B36" t="s">
@@ -3178,10 +3186,10 @@
       <c r="E36" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="11" t="s">
+      <c r="F36" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="G36" s="11" t="s">
+      <c r="G36" s="14" t="s">
         <v>122</v>
       </c>
       <c r="H36" t="s">
@@ -3189,7 +3197,7 @@
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B37" t="s">
@@ -3204,10 +3212,10 @@
       <c r="E37" t="s">
         <v>12</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="F37" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G37" s="11" t="s">
+      <c r="G37" s="14" t="s">
         <v>125</v>
       </c>
       <c r="H37" t="s">
@@ -3215,7 +3223,7 @@
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B38" t="s">
@@ -3230,10 +3238,10 @@
       <c r="E38" t="s">
         <v>12</v>
       </c>
-      <c r="F38" s="11" t="s">
+      <c r="F38" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G38" s="11" t="s">
+      <c r="G38" s="14" t="s">
         <v>128</v>
       </c>
       <c r="H38" t="s">
@@ -3241,7 +3249,7 @@
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B39" t="s">
@@ -3256,10 +3264,10 @@
       <c r="E39" t="s">
         <v>12</v>
       </c>
-      <c r="F39" s="10" t="s">
+      <c r="F39" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G39" s="11" t="s">
+      <c r="G39" s="14" t="s">
         <v>131</v>
       </c>
       <c r="H39" t="s">
@@ -3267,7 +3275,7 @@
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B40" t="s">
@@ -3282,10 +3290,10 @@
       <c r="E40" t="s">
         <v>12</v>
       </c>
-      <c r="F40" s="11" t="s">
+      <c r="F40" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G40" s="11" t="s">
+      <c r="G40" s="14" t="s">
         <v>134</v>
       </c>
       <c r="H40" t="s">
@@ -3293,7 +3301,7 @@
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B41" t="s">
@@ -3308,1071 +3316,31 @@
       <c r="E41" t="s">
         <v>12</v>
       </c>
-      <c r="F41" s="11" t="s">
+      <c r="F41" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G41" s="11" t="s">
+      <c r="G41" s="14" t="s">
         <v>137</v>
       </c>
       <c r="H41" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="42" s="2" customFormat="1" spans="1:8">
-      <c r="A42" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B43" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" t="s">
-        <v>16</v>
-      </c>
-      <c r="E43" t="s">
-        <v>139</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="H43" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B44" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" t="s">
-        <v>20</v>
-      </c>
-      <c r="E44" t="s">
-        <v>139</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="H44" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B45" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" t="s">
-        <v>24</v>
-      </c>
-      <c r="E45" t="s">
-        <v>139</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="H45" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B46" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46" t="s">
-        <v>28</v>
-      </c>
-      <c r="E46" t="s">
-        <v>139</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G46" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="H46" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B47" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47" t="s">
-        <v>10</v>
-      </c>
-      <c r="D47" t="s">
-        <v>32</v>
-      </c>
-      <c r="E47" t="s">
-        <v>139</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="H47" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" t="s">
-        <v>36</v>
-      </c>
-      <c r="E48" t="s">
-        <v>139</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G48" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="H48" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B49" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" t="s">
-        <v>40</v>
-      </c>
-      <c r="E49" t="s">
-        <v>139</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="H49" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B50" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" t="s">
-        <v>43</v>
-      </c>
-      <c r="E50" t="s">
-        <v>139</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="H50" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B51" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51" t="s">
-        <v>10</v>
-      </c>
-      <c r="D51" t="s">
-        <v>46</v>
-      </c>
-      <c r="E51" t="s">
-        <v>139</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G51" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="H51" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B52" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52" t="s">
-        <v>10</v>
-      </c>
-      <c r="D52" t="s">
-        <v>49</v>
-      </c>
-      <c r="E52" t="s">
-        <v>139</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G52" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="H52" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B53" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" t="s">
-        <v>10</v>
-      </c>
-      <c r="D53" t="s">
-        <v>52</v>
-      </c>
-      <c r="E53" t="s">
-        <v>139</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G53" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="H53" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B54" t="s">
-        <v>9</v>
-      </c>
-      <c r="C54" t="s">
-        <v>10</v>
-      </c>
-      <c r="D54" t="s">
-        <v>55</v>
-      </c>
-      <c r="E54" t="s">
-        <v>139</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G54" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="H54" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B55" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" t="s">
-        <v>10</v>
-      </c>
-      <c r="D55" t="s">
-        <v>58</v>
-      </c>
-      <c r="E55" t="s">
-        <v>139</v>
-      </c>
-      <c r="F55" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G55" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="H55" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B56" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56" t="s">
-        <v>10</v>
-      </c>
-      <c r="D56" t="s">
-        <v>61</v>
-      </c>
-      <c r="E56" t="s">
-        <v>139</v>
-      </c>
-      <c r="F56" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="H56" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B57" t="s">
-        <v>9</v>
-      </c>
-      <c r="C57" t="s">
-        <v>10</v>
-      </c>
-      <c r="D57" t="s">
-        <v>64</v>
-      </c>
-      <c r="E57" t="s">
-        <v>139</v>
-      </c>
-      <c r="F57" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G57" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="H57" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B58" t="s">
-        <v>9</v>
-      </c>
-      <c r="C58" t="s">
-        <v>10</v>
-      </c>
-      <c r="D58" t="s">
-        <v>67</v>
-      </c>
-      <c r="E58" t="s">
-        <v>139</v>
-      </c>
-      <c r="F58" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G58" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="H58" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B59" t="s">
-        <v>9</v>
-      </c>
-      <c r="C59" t="s">
-        <v>10</v>
-      </c>
-      <c r="D59" t="s">
-        <v>70</v>
-      </c>
-      <c r="E59" t="s">
-        <v>139</v>
-      </c>
-      <c r="F59" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G59" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="H59" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B60" t="s">
-        <v>9</v>
-      </c>
-      <c r="C60" t="s">
-        <v>10</v>
-      </c>
-      <c r="D60" t="s">
-        <v>73</v>
-      </c>
-      <c r="E60" t="s">
-        <v>139</v>
-      </c>
-      <c r="F60" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G60" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="H60" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B61" t="s">
-        <v>9</v>
-      </c>
-      <c r="C61" t="s">
-        <v>10</v>
-      </c>
-      <c r="D61" t="s">
-        <v>76</v>
-      </c>
-      <c r="E61" t="s">
-        <v>139</v>
-      </c>
-      <c r="F61" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G61" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="H61" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B62" t="s">
-        <v>9</v>
-      </c>
-      <c r="C62" t="s">
-        <v>10</v>
-      </c>
-      <c r="D62" t="s">
-        <v>79</v>
-      </c>
-      <c r="E62" t="s">
-        <v>139</v>
-      </c>
-      <c r="F62" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G62" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="H62" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B63" t="s">
-        <v>9</v>
-      </c>
-      <c r="C63" t="s">
-        <v>10</v>
-      </c>
-      <c r="D63" t="s">
-        <v>82</v>
-      </c>
-      <c r="E63" t="s">
-        <v>139</v>
-      </c>
-      <c r="F63" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="H63" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B64" t="s">
-        <v>9</v>
-      </c>
-      <c r="C64" t="s">
-        <v>10</v>
-      </c>
-      <c r="D64" t="s">
-        <v>85</v>
-      </c>
-      <c r="E64" t="s">
-        <v>139</v>
-      </c>
-      <c r="F64" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G64" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="H64" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B65" t="s">
-        <v>9</v>
-      </c>
-      <c r="C65" t="s">
-        <v>10</v>
-      </c>
-      <c r="D65" t="s">
-        <v>88</v>
-      </c>
-      <c r="E65" t="s">
-        <v>139</v>
-      </c>
-      <c r="F65" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G65" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="H65" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B66" t="s">
-        <v>9</v>
-      </c>
-      <c r="C66" t="s">
-        <v>10</v>
-      </c>
-      <c r="D66" t="s">
-        <v>91</v>
-      </c>
-      <c r="E66" t="s">
-        <v>139</v>
-      </c>
-      <c r="F66" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G66" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="H66" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B67" t="s">
-        <v>9</v>
-      </c>
-      <c r="C67" t="s">
-        <v>10</v>
-      </c>
-      <c r="D67" t="s">
-        <v>94</v>
-      </c>
-      <c r="E67" t="s">
-        <v>139</v>
-      </c>
-      <c r="F67" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G67" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="H67" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B68" t="s">
-        <v>9</v>
-      </c>
-      <c r="C68" t="s">
-        <v>10</v>
-      </c>
-      <c r="D68" t="s">
-        <v>97</v>
-      </c>
-      <c r="E68" t="s">
-        <v>139</v>
-      </c>
-      <c r="F68" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G68" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="H68" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B69" t="s">
-        <v>9</v>
-      </c>
-      <c r="C69" t="s">
-        <v>10</v>
-      </c>
-      <c r="D69" t="s">
-        <v>100</v>
-      </c>
-      <c r="E69" t="s">
-        <v>139</v>
-      </c>
-      <c r="F69" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G69" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="H69" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B70" t="s">
-        <v>9</v>
-      </c>
-      <c r="C70" t="s">
-        <v>10</v>
-      </c>
-      <c r="D70" t="s">
-        <v>103</v>
-      </c>
-      <c r="E70" t="s">
-        <v>139</v>
-      </c>
-      <c r="F70" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G70" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="H70" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B71" t="s">
-        <v>9</v>
-      </c>
-      <c r="C71" t="s">
-        <v>10</v>
-      </c>
-      <c r="D71" t="s">
-        <v>106</v>
-      </c>
-      <c r="E71" t="s">
-        <v>139</v>
-      </c>
-      <c r="F71" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G71" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="H71" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B72" t="s">
-        <v>9</v>
-      </c>
-      <c r="C72" t="s">
-        <v>10</v>
-      </c>
-      <c r="D72" t="s">
-        <v>109</v>
-      </c>
-      <c r="E72" t="s">
-        <v>139</v>
-      </c>
-      <c r="F72" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G72" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="H72" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="A73" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B73" t="s">
-        <v>9</v>
-      </c>
-      <c r="C73" t="s">
-        <v>10</v>
-      </c>
-      <c r="D73" t="s">
-        <v>112</v>
-      </c>
-      <c r="E73" t="s">
-        <v>139</v>
-      </c>
-      <c r="F73" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G73" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="H73" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B74" t="s">
-        <v>9</v>
-      </c>
-      <c r="C74" t="s">
-        <v>10</v>
-      </c>
-      <c r="D74" t="s">
-        <v>115</v>
-      </c>
-      <c r="E74" t="s">
-        <v>139</v>
-      </c>
-      <c r="F74" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G74" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="H74" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B75" t="s">
-        <v>9</v>
-      </c>
-      <c r="C75" t="s">
-        <v>10</v>
-      </c>
-      <c r="D75" t="s">
-        <v>118</v>
-      </c>
-      <c r="E75" t="s">
-        <v>139</v>
-      </c>
-      <c r="F75" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G75" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="H75" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="A76" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B76" t="s">
-        <v>9</v>
-      </c>
-      <c r="C76" t="s">
-        <v>10</v>
-      </c>
-      <c r="D76" t="s">
-        <v>121</v>
-      </c>
-      <c r="E76" t="s">
-        <v>139</v>
-      </c>
-      <c r="F76" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G76" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="H76" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B77" t="s">
-        <v>9</v>
-      </c>
-      <c r="C77" t="s">
-        <v>10</v>
-      </c>
-      <c r="D77" t="s">
-        <v>124</v>
-      </c>
-      <c r="E77" t="s">
-        <v>139</v>
-      </c>
-      <c r="F77" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G77" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="H77" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B78" t="s">
-        <v>9</v>
-      </c>
-      <c r="C78" t="s">
-        <v>10</v>
-      </c>
-      <c r="D78" t="s">
-        <v>127</v>
-      </c>
-      <c r="E78" t="s">
-        <v>139</v>
-      </c>
-      <c r="F78" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G78" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="H78" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="A79" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B79" t="s">
-        <v>9</v>
-      </c>
-      <c r="C79" t="s">
-        <v>10</v>
-      </c>
-      <c r="D79" t="s">
-        <v>130</v>
-      </c>
-      <c r="E79" t="s">
-        <v>139</v>
-      </c>
-      <c r="F79" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G79" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="H79" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B80" t="s">
-        <v>9</v>
-      </c>
-      <c r="C80" t="s">
-        <v>10</v>
-      </c>
-      <c r="D80" t="s">
-        <v>133</v>
-      </c>
-      <c r="E80" t="s">
-        <v>139</v>
-      </c>
-      <c r="F80" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G80" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="H80" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B81" t="s">
-        <v>9</v>
-      </c>
-      <c r="C81" t="s">
-        <v>10</v>
-      </c>
-      <c r="D81" t="s">
-        <v>136</v>
-      </c>
-      <c r="E81" t="s">
-        <v>139</v>
-      </c>
-      <c r="F81" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G81" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="H81" t="s">
-        <v>219</v>
-      </c>
-    </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43:E61 E62:E81">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41">
       <formula1>"销售部门,管理部门"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F9 F16 F23 F30 F37 F42 F49 F56 F63 F70 F77">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F9 F16 F23 F30 F37">
       <formula1>"'1.5%,'3%,'5%,'6%,'11%,'13%,'17%"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3 F4 F10 F11 F17 F18 F24 F25 F31 F32 F38 F39 F43 F44 F50 F51 F57 F58 F64 F65 F71 F72 F78 F79 F5:F8 F12:F15 F19:F22 F26:F29 F33:F36 F40:F41 F45:F48 F52:F55 F59:F62 F66:F69 F73:F76 F80:F81">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3 F4 F10 F11 F17 F18 F24 F25 F31 F32 F38 F39 F5:F8 F12:F15 F19:F22 F26:F29 F33:F36 F40:F41">
       <formula1>"1.5%,'3%,'5%,'6%,'11%,'13%,'17%"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3 B4:B5 B6:B7 B8:B9 B10:B11 B12:B13 B14:B15 B16:B17 B18:B19 B20:B21 B22:B23 B24:B25 B26:B27 B28:B29 B30:B31 B32:B33 B34:B35 B36:B37 B38:B39 B40:B41 B42:B43 B44:B45 B46:B47 B48:B49 B50:B51 B52:B53 B54:B55 B56:B57 B58:B59 B60:B61 B62:B63 B64:B65 B66:B67 B68:B69 B70:B71 B72:B73 B74:B75 B76:B77 B78:B79 B80:B81">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3 B4:B5 B6:B7 B8:B9 B10:B11 B12:B13 B14:B15 B16:B17 B18:B19 B20:B21 B22:B23 B24:B25 B26:B27 B28:B29 B30:B31 B32:B33 B34:B35 B36:B37 B38:B39 B40:B41">
       <formula1>"普票,专票"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D41 D42:D81">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D41">
       <formula1>"福利费,劳务费,招待费,办公费,快递费,通讯费,维修费,财产保险费,设备租赁费,银行费用,差旅费,交通费,汽油费,路桥费,汽车维修费,汽车保险,物流费,房租费,物业费,水费,电费,仓储费,装修费,广告费,宣传费,研发费,会议费,服务费,咨询费,认证费,专利费,工会经费,其他,行政罚款,税务滞纳金,印花税,残保金,减免税款,原材料,商品产品"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4385,10 +3353,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A36" sqref="$A36:$XFD69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4402,41 +3370,41 @@
     <col min="9" max="9" width="48.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:9">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="7" customFormat="1" spans="1:9">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -4447,25 +3415,25 @@
       <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="13" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
         <v>115</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>223</v>
+      <c r="H2" s="14" t="s">
+        <v>142</v>
       </c>
       <c r="I2" t="s">
-        <v>224</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -4476,25 +3444,25 @@
       <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="14" t="s">
         <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>225</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>226</v>
+        <v>144</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>145</v>
       </c>
       <c r="I3" t="s">
-        <v>227</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -4505,25 +3473,25 @@
       <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>228</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>229</v>
+        <v>147</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>148</v>
       </c>
       <c r="I4" t="s">
-        <v>230</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -4534,25 +3502,25 @@
       <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="14" t="s">
         <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>231</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>232</v>
+        <v>150</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>151</v>
       </c>
       <c r="I5" t="s">
-        <v>227</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -4563,25 +3531,25 @@
       <c r="E6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="14" t="s">
         <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>233</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>234</v>
+        <v>152</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>153</v>
       </c>
       <c r="I6" t="s">
-        <v>235</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -4592,25 +3560,25 @@
       <c r="E7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="14" t="s">
         <v>33</v>
       </c>
       <c r="G7" t="s">
         <v>115</v>
       </c>
-      <c r="H7" s="11" t="s">
-        <v>236</v>
+      <c r="H7" s="14" t="s">
+        <v>155</v>
       </c>
       <c r="I7" t="s">
-        <v>237</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -4621,25 +3589,25 @@
       <c r="E8" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="14" t="s">
         <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>225</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>238</v>
+        <v>144</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>157</v>
       </c>
       <c r="I8" t="s">
-        <v>239</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -4650,25 +3618,25 @@
       <c r="E9" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>240</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>241</v>
+        <v>159</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>160</v>
       </c>
       <c r="I9" t="s">
-        <v>242</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
@@ -4679,25 +3647,25 @@
       <c r="E10" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="14" t="s">
         <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>243</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>244</v>
+        <v>162</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>163</v>
       </c>
       <c r="I10" t="s">
-        <v>245</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
@@ -4708,25 +3676,25 @@
       <c r="E11" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>228</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>246</v>
+        <v>147</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>165</v>
       </c>
       <c r="I11" t="s">
-        <v>247</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
@@ -4737,25 +3705,25 @@
       <c r="E12" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="14" t="s">
         <v>25</v>
       </c>
       <c r="G12" t="s">
-        <v>243</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>248</v>
+        <v>162</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>167</v>
       </c>
       <c r="I12" t="s">
-        <v>249</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
@@ -4766,25 +3734,25 @@
       <c r="E13" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="14" t="s">
         <v>29</v>
       </c>
       <c r="G13" t="s">
-        <v>228</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>250</v>
+        <v>147</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>169</v>
       </c>
       <c r="I13" t="s">
-        <v>251</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
@@ -4795,25 +3763,25 @@
       <c r="E14" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="14" t="s">
         <v>33</v>
       </c>
       <c r="G14" t="s">
         <v>115</v>
       </c>
-      <c r="H14" s="11" t="s">
-        <v>252</v>
+      <c r="H14" s="14" t="s">
+        <v>171</v>
       </c>
       <c r="I14" t="s">
-        <v>253</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
@@ -4824,25 +3792,25 @@
       <c r="E15" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="14" t="s">
         <v>37</v>
       </c>
       <c r="G15" t="s">
         <v>115</v>
       </c>
-      <c r="H15" s="11" t="s">
-        <v>254</v>
+      <c r="H15" s="14" t="s">
+        <v>173</v>
       </c>
       <c r="I15" t="s">
-        <v>255</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
@@ -4853,25 +3821,25 @@
       <c r="E16" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="13" t="s">
         <v>13</v>
       </c>
       <c r="G16" t="s">
         <v>115</v>
       </c>
-      <c r="H16" s="11" t="s">
-        <v>256</v>
+      <c r="H16" s="14" t="s">
+        <v>175</v>
       </c>
       <c r="I16" t="s">
-        <v>257</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
@@ -4882,25 +3850,25 @@
       <c r="E17" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="14" t="s">
         <v>17</v>
       </c>
       <c r="G17" t="s">
-        <v>258</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>259</v>
+        <v>177</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>178</v>
       </c>
       <c r="I17" t="s">
-        <v>260</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
@@ -4911,25 +3879,25 @@
       <c r="E18" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G18" t="s">
-        <v>228</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>261</v>
+        <v>147</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>180</v>
       </c>
       <c r="I18" t="s">
-        <v>262</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
@@ -4940,25 +3908,25 @@
       <c r="E19" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="14" t="s">
         <v>25</v>
       </c>
       <c r="G19" t="s">
-        <v>263</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>264</v>
+        <v>182</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>183</v>
       </c>
       <c r="I19" t="s">
-        <v>265</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
@@ -4969,25 +3937,25 @@
       <c r="E20" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="14" t="s">
         <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>228</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>266</v>
+        <v>147</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>185</v>
       </c>
       <c r="I20" t="s">
-        <v>267</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
@@ -4998,25 +3966,25 @@
       <c r="E21" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="14" t="s">
         <v>33</v>
       </c>
       <c r="G21" t="s">
         <v>115</v>
       </c>
-      <c r="H21" s="11" t="s">
-        <v>268</v>
+      <c r="H21" s="14" t="s">
+        <v>187</v>
       </c>
       <c r="I21" t="s">
-        <v>269</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
@@ -5027,25 +3995,25 @@
       <c r="E22" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="14" t="s">
         <v>37</v>
       </c>
       <c r="G22" t="s">
-        <v>225</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>270</v>
+        <v>144</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>189</v>
       </c>
       <c r="I22" t="s">
-        <v>271</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
@@ -5056,25 +4024,25 @@
       <c r="E23" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G23" t="s">
-        <v>231</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>272</v>
+        <v>150</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>191</v>
       </c>
       <c r="I23" t="s">
-        <v>273</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
@@ -5085,25 +4053,25 @@
       <c r="E24" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F24" s="14" t="s">
         <v>17</v>
       </c>
       <c r="G24" t="s">
-        <v>233</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>274</v>
+        <v>152</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>193</v>
       </c>
       <c r="I24" t="s">
-        <v>275</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
@@ -5114,25 +4082,25 @@
       <c r="E25" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="F25" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G25" t="s">
         <v>115</v>
       </c>
-      <c r="H25" s="11" t="s">
-        <v>276</v>
+      <c r="H25" s="14" t="s">
+        <v>195</v>
       </c>
       <c r="I25" t="s">
-        <v>277</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
@@ -5143,25 +4111,25 @@
       <c r="E26" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="F26" s="14" t="s">
         <v>25</v>
       </c>
       <c r="G26" t="s">
-        <v>231</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>278</v>
+        <v>150</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>197</v>
       </c>
       <c r="I26" t="s">
-        <v>279</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
@@ -5172,25 +4140,25 @@
       <c r="E27" t="s">
         <v>12</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="F27" s="14" t="s">
         <v>29</v>
       </c>
       <c r="G27" t="s">
-        <v>240</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>280</v>
+        <v>159</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>199</v>
       </c>
       <c r="I27" t="s">
-        <v>281</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
@@ -5201,25 +4169,25 @@
       <c r="E28" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="F28" s="14" t="s">
         <v>33</v>
       </c>
       <c r="G28" t="s">
         <v>115</v>
       </c>
-      <c r="H28" s="11" t="s">
-        <v>282</v>
+      <c r="H28" s="14" t="s">
+        <v>201</v>
       </c>
       <c r="I28" t="s">
-        <v>283</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C29" t="s">
         <v>10</v>
@@ -5230,25 +4198,25 @@
       <c r="E29" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="11" t="s">
+      <c r="F29" s="14" t="s">
         <v>37</v>
       </c>
       <c r="G29" t="s">
         <v>115</v>
       </c>
-      <c r="H29" s="11" t="s">
-        <v>284</v>
+      <c r="H29" s="14" t="s">
+        <v>203</v>
       </c>
       <c r="I29" t="s">
-        <v>285</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
@@ -5259,25 +4227,25 @@
       <c r="E30" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="13" t="s">
         <v>13</v>
       </c>
       <c r="G30" t="s">
         <v>115</v>
       </c>
-      <c r="H30" s="11" t="s">
-        <v>286</v>
+      <c r="H30" s="14" t="s">
+        <v>205</v>
       </c>
       <c r="I30" t="s">
-        <v>287</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C31" t="s">
         <v>10</v>
@@ -5288,25 +4256,25 @@
       <c r="E31" t="s">
         <v>12</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="F31" s="14" t="s">
         <v>17</v>
       </c>
       <c r="G31" t="s">
-        <v>258</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>288</v>
+        <v>177</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>207</v>
       </c>
       <c r="I31" t="s">
-        <v>289</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C32" t="s">
         <v>10</v>
@@ -5317,25 +4285,25 @@
       <c r="E32" t="s">
         <v>12</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="F32" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G32" t="s">
-        <v>228</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>290</v>
+        <v>147</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>209</v>
       </c>
       <c r="I32" t="s">
-        <v>291</v>
+        <v>210</v>
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C33" t="s">
         <v>10</v>
@@ -5346,25 +4314,25 @@
       <c r="E33" t="s">
         <v>12</v>
       </c>
-      <c r="F33" s="11" t="s">
+      <c r="F33" s="14" t="s">
         <v>25</v>
       </c>
       <c r="G33" t="s">
-        <v>243</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>292</v>
+        <v>162</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>211</v>
       </c>
       <c r="I33" t="s">
-        <v>293</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C34" t="s">
         <v>10</v>
@@ -5375,25 +4343,25 @@
       <c r="E34" t="s">
         <v>12</v>
       </c>
-      <c r="F34" s="11" t="s">
+      <c r="F34" s="14" t="s">
         <v>29</v>
       </c>
       <c r="G34" t="s">
-        <v>233</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>294</v>
+        <v>152</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>213</v>
       </c>
       <c r="I34" t="s">
-        <v>295</v>
+        <v>214</v>
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C35" t="s">
         <v>10</v>
@@ -5404,1020 +4372,34 @@
       <c r="E35" t="s">
         <v>12</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="F35" s="14" t="s">
         <v>33</v>
       </c>
       <c r="G35" t="s">
         <v>115</v>
       </c>
-      <c r="H35" s="11" t="s">
-        <v>296</v>
+      <c r="H35" s="14" t="s">
+        <v>215</v>
       </c>
       <c r="I35" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="36" s="2" customFormat="1" spans="1:9">
-      <c r="A36" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="H36" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" t="s">
-        <v>222</v>
-      </c>
-      <c r="C37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" t="s">
-        <v>20</v>
-      </c>
-      <c r="E37" t="s">
-        <v>139</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" t="s">
-        <v>225</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="I37" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38" t="s">
-        <v>222</v>
-      </c>
-      <c r="C38" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" t="s">
-        <v>24</v>
-      </c>
-      <c r="E38" t="s">
-        <v>139</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" t="s">
-        <v>228</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="I38" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" t="s">
-        <v>222</v>
-      </c>
-      <c r="C39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" t="s">
-        <v>28</v>
-      </c>
-      <c r="E39" t="s">
-        <v>139</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G39" t="s">
-        <v>231</v>
-      </c>
-      <c r="H39" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="I39" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" t="s">
-        <v>222</v>
-      </c>
-      <c r="C40" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" t="s">
-        <v>32</v>
-      </c>
-      <c r="E40" t="s">
-        <v>139</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G40" t="s">
-        <v>233</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="I40" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41" t="s">
-        <v>222</v>
-      </c>
-      <c r="C41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41" t="s">
-        <v>36</v>
-      </c>
-      <c r="E41" t="s">
-        <v>139</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G41" t="s">
-        <v>115</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="I41" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" t="s">
-        <v>222</v>
-      </c>
-      <c r="C42" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" t="s">
-        <v>40</v>
-      </c>
-      <c r="E42" t="s">
-        <v>139</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G42" t="s">
-        <v>225</v>
-      </c>
-      <c r="H42" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="I42" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B43" t="s">
-        <v>222</v>
-      </c>
-      <c r="C43" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" t="s">
-        <v>43</v>
-      </c>
-      <c r="E43" t="s">
-        <v>139</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" t="s">
-        <v>240</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="I43" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B44" t="s">
-        <v>222</v>
-      </c>
-      <c r="C44" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" t="s">
-        <v>46</v>
-      </c>
-      <c r="E44" t="s">
-        <v>139</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G44" t="s">
-        <v>243</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="I44" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B45" t="s">
-        <v>222</v>
-      </c>
-      <c r="C45" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" t="s">
-        <v>49</v>
-      </c>
-      <c r="E45" t="s">
-        <v>139</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G45" t="s">
-        <v>228</v>
-      </c>
-      <c r="H45" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="I45" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B46" t="s">
-        <v>222</v>
-      </c>
-      <c r="C46" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46" t="s">
-        <v>52</v>
-      </c>
-      <c r="E46" t="s">
-        <v>139</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G46" t="s">
-        <v>243</v>
-      </c>
-      <c r="H46" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="I46" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B47" t="s">
-        <v>222</v>
-      </c>
-      <c r="C47" t="s">
-        <v>10</v>
-      </c>
-      <c r="D47" t="s">
-        <v>55</v>
-      </c>
-      <c r="E47" t="s">
-        <v>139</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G47" t="s">
-        <v>228</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="I47" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48" t="s">
-        <v>222</v>
-      </c>
-      <c r="C48" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" t="s">
-        <v>58</v>
-      </c>
-      <c r="E48" t="s">
-        <v>139</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G48" t="s">
-        <v>115</v>
-      </c>
-      <c r="H48" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="I48" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B49" t="s">
-        <v>222</v>
-      </c>
-      <c r="C49" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" t="s">
-        <v>61</v>
-      </c>
-      <c r="E49" t="s">
-        <v>139</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G49" t="s">
-        <v>115</v>
-      </c>
-      <c r="H49" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="I49" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B50" t="s">
-        <v>222</v>
-      </c>
-      <c r="C50" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" t="s">
-        <v>64</v>
-      </c>
-      <c r="E50" t="s">
-        <v>139</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" t="s">
-        <v>115</v>
-      </c>
-      <c r="H50" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="I50" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B51" t="s">
-        <v>222</v>
-      </c>
-      <c r="C51" t="s">
-        <v>10</v>
-      </c>
-      <c r="D51" t="s">
-        <v>67</v>
-      </c>
-      <c r="E51" t="s">
-        <v>139</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G51" t="s">
-        <v>258</v>
-      </c>
-      <c r="H51" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="I51" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B52" t="s">
-        <v>222</v>
-      </c>
-      <c r="C52" t="s">
-        <v>10</v>
-      </c>
-      <c r="D52" t="s">
-        <v>70</v>
-      </c>
-      <c r="E52" t="s">
-        <v>139</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G52" t="s">
-        <v>228</v>
-      </c>
-      <c r="H52" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="I52" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B53" t="s">
-        <v>222</v>
-      </c>
-      <c r="C53" t="s">
-        <v>10</v>
-      </c>
-      <c r="D53" t="s">
-        <v>73</v>
-      </c>
-      <c r="E53" t="s">
-        <v>139</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G53" t="s">
-        <v>263</v>
-      </c>
-      <c r="H53" s="11" t="s">
-        <v>331</v>
-      </c>
-      <c r="I53" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B54" t="s">
-        <v>222</v>
-      </c>
-      <c r="C54" t="s">
-        <v>10</v>
-      </c>
-      <c r="D54" t="s">
-        <v>76</v>
-      </c>
-      <c r="E54" t="s">
-        <v>139</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G54" t="s">
-        <v>228</v>
-      </c>
-      <c r="H54" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="I54" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B55" t="s">
-        <v>222</v>
-      </c>
-      <c r="C55" t="s">
-        <v>10</v>
-      </c>
-      <c r="D55" t="s">
-        <v>79</v>
-      </c>
-      <c r="E55" t="s">
-        <v>139</v>
-      </c>
-      <c r="F55" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G55" t="s">
-        <v>115</v>
-      </c>
-      <c r="H55" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="I55" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B56" t="s">
-        <v>222</v>
-      </c>
-      <c r="C56" t="s">
-        <v>10</v>
-      </c>
-      <c r="D56" t="s">
-        <v>82</v>
-      </c>
-      <c r="E56" t="s">
-        <v>139</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G56" t="s">
-        <v>225</v>
-      </c>
-      <c r="H56" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="I56" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B57" t="s">
-        <v>222</v>
-      </c>
-      <c r="C57" t="s">
-        <v>10</v>
-      </c>
-      <c r="D57" t="s">
-        <v>85</v>
-      </c>
-      <c r="E57" t="s">
-        <v>139</v>
-      </c>
-      <c r="F57" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G57" t="s">
-        <v>231</v>
-      </c>
-      <c r="H57" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="I57" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B58" t="s">
-        <v>222</v>
-      </c>
-      <c r="C58" t="s">
-        <v>10</v>
-      </c>
-      <c r="D58" t="s">
-        <v>88</v>
-      </c>
-      <c r="E58" t="s">
-        <v>139</v>
-      </c>
-      <c r="F58" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G58" t="s">
-        <v>233</v>
-      </c>
-      <c r="H58" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="I58" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B59" t="s">
-        <v>222</v>
-      </c>
-      <c r="C59" t="s">
-        <v>10</v>
-      </c>
-      <c r="D59" t="s">
-        <v>91</v>
-      </c>
-      <c r="E59" t="s">
-        <v>139</v>
-      </c>
-      <c r="F59" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G59" t="s">
-        <v>115</v>
-      </c>
-      <c r="H59" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="I59" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B60" t="s">
-        <v>222</v>
-      </c>
-      <c r="C60" t="s">
-        <v>10</v>
-      </c>
-      <c r="D60" t="s">
-        <v>94</v>
-      </c>
-      <c r="E60" t="s">
-        <v>139</v>
-      </c>
-      <c r="F60" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G60" t="s">
-        <v>231</v>
-      </c>
-      <c r="H60" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="I60" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B61" t="s">
-        <v>222</v>
-      </c>
-      <c r="C61" t="s">
-        <v>10</v>
-      </c>
-      <c r="D61" t="s">
-        <v>97</v>
-      </c>
-      <c r="E61" t="s">
-        <v>139</v>
-      </c>
-      <c r="F61" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G61" t="s">
-        <v>240</v>
-      </c>
-      <c r="H61" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="I61" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B62" t="s">
-        <v>222</v>
-      </c>
-      <c r="C62" t="s">
-        <v>10</v>
-      </c>
-      <c r="D62" t="s">
-        <v>100</v>
-      </c>
-      <c r="E62" t="s">
-        <v>139</v>
-      </c>
-      <c r="F62" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G62" t="s">
-        <v>115</v>
-      </c>
-      <c r="H62" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="I62" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B63" t="s">
-        <v>222</v>
-      </c>
-      <c r="C63" t="s">
-        <v>10</v>
-      </c>
-      <c r="D63" t="s">
-        <v>103</v>
-      </c>
-      <c r="E63" t="s">
-        <v>139</v>
-      </c>
-      <c r="F63" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G63" t="s">
-        <v>115</v>
-      </c>
-      <c r="H63" s="11" t="s">
-        <v>351</v>
-      </c>
-      <c r="I63" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B64" t="s">
-        <v>222</v>
-      </c>
-      <c r="C64" t="s">
-        <v>10</v>
-      </c>
-      <c r="D64" t="s">
-        <v>106</v>
-      </c>
-      <c r="E64" t="s">
-        <v>139</v>
-      </c>
-      <c r="F64" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" t="s">
-        <v>115</v>
-      </c>
-      <c r="H64" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="I64" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B65" t="s">
-        <v>222</v>
-      </c>
-      <c r="C65" t="s">
-        <v>10</v>
-      </c>
-      <c r="D65" t="s">
-        <v>109</v>
-      </c>
-      <c r="E65" t="s">
-        <v>139</v>
-      </c>
-      <c r="F65" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G65" t="s">
-        <v>258</v>
-      </c>
-      <c r="H65" s="11" t="s">
-        <v>355</v>
-      </c>
-      <c r="I65" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B66" t="s">
-        <v>222</v>
-      </c>
-      <c r="C66" t="s">
-        <v>10</v>
-      </c>
-      <c r="D66" t="s">
-        <v>112</v>
-      </c>
-      <c r="E66" t="s">
-        <v>139</v>
-      </c>
-      <c r="F66" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G66" t="s">
-        <v>228</v>
-      </c>
-      <c r="H66" s="11" t="s">
-        <v>357</v>
-      </c>
-      <c r="I66" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B67" t="s">
-        <v>222</v>
-      </c>
-      <c r="C67" t="s">
-        <v>10</v>
-      </c>
-      <c r="D67" t="s">
-        <v>115</v>
-      </c>
-      <c r="E67" t="s">
-        <v>139</v>
-      </c>
-      <c r="F67" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G67" t="s">
-        <v>243</v>
-      </c>
-      <c r="H67" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="I67" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B68" t="s">
-        <v>222</v>
-      </c>
-      <c r="C68" t="s">
-        <v>10</v>
-      </c>
-      <c r="D68" t="s">
-        <v>133</v>
-      </c>
-      <c r="E68" t="s">
-        <v>139</v>
-      </c>
-      <c r="F68" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G68" t="s">
-        <v>233</v>
-      </c>
-      <c r="H68" s="11" t="s">
-        <v>361</v>
-      </c>
-      <c r="I68" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B69" t="s">
-        <v>222</v>
-      </c>
-      <c r="C69" t="s">
-        <v>10</v>
-      </c>
-      <c r="D69" t="s">
-        <v>136</v>
-      </c>
-      <c r="E69" t="s">
-        <v>139</v>
-      </c>
-      <c r="F69" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G69" t="s">
-        <v>115</v>
-      </c>
-      <c r="H69" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="I69" t="s">
-        <v>364</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3 B4 B5 B6 B7 B8 B9 B10 B11 B12 B13 B14 B15 B16 B17 B18 B19 B20 B21 B22 B23 B24 B25 B26 B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B49 B50 B51 B52 B53 B54 B55 B56 B57 B58 B59 B60 B61 B62 B63 B64 B65 B66 B67 B68 B69">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3 B4 B5 B6 B7 B8 B9 B10 B11 B12 B13 B14 B15 B16 B17 B18 B19 B20 B21 B22 B23 B24 B25 B26 B27 B28 B29 B30 B31 B32 B33 B34 B35">
       <formula1>"普票,专票"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D36 D3:D33 D34:D35 D37:D67 D68:D69">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3:D33 D34:D35">
       <formula1>"福利费,劳务费,招待费,办公费,快递费,通讯费,维修费,财产保险费,设备租赁费,银行费用,差旅费,交通费,汽油费,路桥费,汽车维修费,汽车保险,物流费,房租费,物业费,水费,电费,仓储费,装修费,广告费,宣传费,研发费,会议费,服务费,咨询费,认证费,专利费,工会经费,其他,行政罚款,税务滞纳金,印花税,残保金,减免税款,原材料,商品产品"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3 E4:E5 E6:E7 E8:E9 E10:E11 E12:E13 E14:E15 E16:E17 E18:E19 E20:E21 E22:E23 E24:E25 E26:E27 E28:E29 E30:E31 E32:E33 E34:E35 E36:E37 E38:E39 E40:E41 E42:E43 E44:E45 E46:E47 E48:E49 E50:E51 E52:E53 E54:E55 E56:E57 E58:E59 E60:E61 E62:E63 E64:E65 E66:E67 E68:E69">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3 E4:E5 E6:E7 E8:E9 E10:E11 E12:E13 E14:E15 E16:E17 E18:E19 E20:E21 E22:E23 E24:E25 E26:E27 E28:E29 E30:E31 E32:E33 E34:E35">
       <formula1>"销售部门,管理部门"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F8 F9:F15 F16:F22 F23:F29 F30:F35 F36:F42 F43:F49 F50:F56 F57:F63 F64:F69">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F8 F9:F15 F16:F22 F23:F29 F30:F35">
       <formula1>"'1.5%,'3%,'5%,'6%,'11%,'13%,'17%"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G35 G36:G69">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G35">
       <formula1>"有形动产租赁,其他,运输服务,电信服务,建筑安装服务,不动产租赁服务,金融保险服务,生活服务,货物及加工，修理修配劳务"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6432,7 +4414,7 @@
   <sheetPr/>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -6446,381 +4428,381 @@
     <col min="9" max="9" width="49.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:9">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="7" customFormat="1" spans="1:9">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>366</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>367</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="14" t="s">
+      <c r="I2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="I3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>219</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="I4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>223</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="I5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>219</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="I6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C7" t="s">
+        <v>231</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="I2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>370</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>371</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="11" t="s">
+      <c r="H7" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="I7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" s="8" customFormat="1" spans="1:9">
+      <c r="A8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>223</v>
+      </c>
+      <c r="F9" t="s">
+        <v>236</v>
+      </c>
+      <c r="G9" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="I3" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="H9" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="I9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>219</v>
+      </c>
+      <c r="F10" t="s">
+        <v>236</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="I10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" t="s">
         <v>222</v>
       </c>
-      <c r="C4" t="s">
-        <v>366</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>367</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="I4" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>222</v>
-      </c>
-      <c r="C5" t="s">
-        <v>370</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>371</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="11" t="s">
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>223</v>
+      </c>
+      <c r="F11" t="s">
+        <v>236</v>
+      </c>
+      <c r="G11" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="I5" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>378</v>
-      </c>
-      <c r="C6" t="s">
-        <v>379</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>367</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="11" t="s">
+      <c r="H11" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="I11" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C12" t="s">
+        <v>231</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>219</v>
+      </c>
+      <c r="F12" t="s">
+        <v>236</v>
+      </c>
+      <c r="G12" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="I6" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>378</v>
-      </c>
-      <c r="C7" t="s">
-        <v>379</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>371</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="11" t="s">
+      <c r="H12" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="I12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>230</v>
+      </c>
+      <c r="C13" t="s">
+        <v>231</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>223</v>
+      </c>
+      <c r="F13" t="s">
+        <v>236</v>
+      </c>
+      <c r="G13" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="11" t="s">
-        <v>382</v>
-      </c>
-      <c r="I7" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="1" spans="1:9">
-      <c r="A8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>384</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>370</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>371</v>
-      </c>
-      <c r="F9" t="s">
-        <v>139</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="I9" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>222</v>
-      </c>
-      <c r="C10" t="s">
-        <v>366</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s">
-        <v>367</v>
-      </c>
-      <c r="F10" t="s">
-        <v>139</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="I10" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>222</v>
-      </c>
-      <c r="C11" t="s">
-        <v>370</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>371</v>
-      </c>
-      <c r="F11" t="s">
-        <v>139</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>390</v>
-      </c>
-      <c r="I11" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>378</v>
-      </c>
-      <c r="C12" t="s">
-        <v>379</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>367</v>
-      </c>
-      <c r="F12" t="s">
-        <v>139</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>392</v>
-      </c>
-      <c r="I12" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>378</v>
-      </c>
-      <c r="C13" t="s">
-        <v>379</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>371</v>
-      </c>
-      <c r="F13" t="s">
-        <v>139</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>394</v>
+      <c r="H13" s="14" t="s">
+        <v>247</v>
       </c>
       <c r="I13" t="s">
-        <v>395</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -6848,4 +4830,2098 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:8">
+      <c r="A1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:8">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:8">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:8">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:8">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:8">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:8">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="1:8">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="1:8">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="1:8">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="1:8">
+      <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="1:8">
+      <c r="A12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="1:8">
+      <c r="A13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="1:8">
+      <c r="A14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" spans="1:8">
+      <c r="A15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" spans="1:8">
+      <c r="A16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="1:8">
+      <c r="A17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" spans="1:8">
+      <c r="A18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" spans="1:8">
+      <c r="A19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="1" spans="1:8">
+      <c r="A20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" spans="1:8">
+      <c r="A21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" spans="1:8">
+      <c r="A22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" spans="1:8">
+      <c r="A23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="24" s="2" customFormat="1" spans="1:8">
+      <c r="A24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="25" s="2" customFormat="1" spans="1:8">
+      <c r="A25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="1" spans="1:8">
+      <c r="A26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" s="2" customFormat="1" spans="1:8">
+      <c r="A27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="1" spans="1:8">
+      <c r="A28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="29" s="2" customFormat="1" spans="1:8">
+      <c r="A29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="30" s="2" customFormat="1" spans="1:8">
+      <c r="A30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="31" s="2" customFormat="1" spans="1:8">
+      <c r="A31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="32" s="2" customFormat="1" spans="1:8">
+      <c r="A32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="33" s="2" customFormat="1" spans="1:8">
+      <c r="A33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="34" s="2" customFormat="1" spans="1:8">
+      <c r="A34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="35" s="2" customFormat="1" spans="1:8">
+      <c r="A35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="36" s="2" customFormat="1" spans="1:8">
+      <c r="A36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="37" s="2" customFormat="1" spans="1:8">
+      <c r="A37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="38" s="2" customFormat="1" spans="1:8">
+      <c r="A38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="39" s="2" customFormat="1" spans="1:8">
+      <c r="A39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="40" s="2" customFormat="1" spans="1:8">
+      <c r="A40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E2:E20 E21:E40">
+      <formula1>"销售部门,管理部门"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F8 F15 F22 F29 F36">
+      <formula1>"'1.5%,'3%,'5%,'6%,'11%,'13%,'17%"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F3 F9 F10 F16 F17 F23 F24 F30 F31 F37 F38 F4:F7 F11:F14 F18:F21 F25:F28 F32:F35 F39:F40">
+      <formula1>"1.5%,'3%,'5%,'6%,'11%,'13%,'17%"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B2 B3:B4 B5:B6 B7:B8 B9:B10 B11:B12 B13:B14 B15:B16 B17:B18 B19:B20 B21:B22 B23:B24 B25:B26 B27:B28 B29:B30 B31:B32 B33:B34 B35:B36 B37:B38 B39:B40">
+      <formula1>"普票,专票"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D40">
+      <formula1>"福利费,劳务费,招待费,办公费,快递费,通讯费,维修费,财产保险费,设备租赁费,银行费用,差旅费,交通费,汽油费,路桥费,汽车维修费,汽车保险,物流费,房租费,物业费,水费,电费,仓储费,装修费,广告费,宣传费,研发费,会议费,服务费,咨询费,认证费,专利费,工会经费,其他,行政罚款,税务滞纳金,印花税,残保金,减免税款,原材料,商品产品"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:9">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:9">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:9">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:9">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:9">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:9">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:9">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="1:9">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="1:9">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="1:9">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="1:9">
+      <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="1:9">
+      <c r="A12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="1:9">
+      <c r="A13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="1:9">
+      <c r="A14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" spans="1:9">
+      <c r="A15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" spans="1:9">
+      <c r="A16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="1:9">
+      <c r="A17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" spans="1:9">
+      <c r="A18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" spans="1:9">
+      <c r="A19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="1" spans="1:9">
+      <c r="A20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" spans="1:9">
+      <c r="A21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" spans="1:9">
+      <c r="A22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" spans="1:9">
+      <c r="A23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="24" s="2" customFormat="1" spans="1:9">
+      <c r="A24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="25" s="2" customFormat="1" spans="1:9">
+      <c r="A25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="1" spans="1:9">
+      <c r="A26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="27" s="2" customFormat="1" spans="1:9">
+      <c r="A27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="1" spans="1:9">
+      <c r="A28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="29" s="2" customFormat="1" spans="1:9">
+      <c r="A29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="30" s="2" customFormat="1" spans="1:9">
+      <c r="A30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="31" s="2" customFormat="1" spans="1:9">
+      <c r="A31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="32" s="2" customFormat="1" spans="1:9">
+      <c r="A32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="33" s="2" customFormat="1" spans="1:9">
+      <c r="A33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="34" s="2" customFormat="1" spans="1:9">
+      <c r="A34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B2 B3 B4 B5 B6 B7 B8 B9 B10 B11 B12 B13 B14 B15 B16 B17 B18 B19 B20 B21 B22 B23 B24 B25 B26 B27 B28 B29 B30 B31 B32 B33 B34">
+      <formula1>"普票,专票"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D2:D32 D33:D34">
+      <formula1>"福利费,劳务费,招待费,办公费,快递费,通讯费,维修费,财产保险费,设备租赁费,银行费用,差旅费,交通费,汽油费,路桥费,汽车维修费,汽车保险,物流费,房租费,物业费,水费,电费,仓储费,装修费,广告费,宣传费,研发费,会议费,服务费,咨询费,认证费,专利费,工会经费,其他,行政罚款,税务滞纳金,印花税,残保金,减免税款,原材料,商品产品"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E2 E3:E4 E5:E6 E7:E8 E9:E10 E11:E12 E13:E14 E15:E16 E17:E18 E19:E20 E21:E22 E23:E24 E25:E26 E27:E28 E29:E30 E31:E32 E33:E34">
+      <formula1>"销售部门,管理部门"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F7 F8:F14 F15:F21 F22:F28 F29:F34">
+      <formula1>"'1.5%,'3%,'5%,'6%,'11%,'13%,'17%"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G34">
+      <formula1>"有形动产租赁,其他,运输服务,电信服务,建筑安装服务,不动产租赁服务,金融保险服务,生活服务,货物及加工，修理修配劳务"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/test_data/发票.xlsx
+++ b/test_data/发票.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="14070"/>
+    <workbookView windowWidth="28080" windowHeight="14070" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="记收普票测试数据" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249">
   <si>
     <t>记账日期</t>
   </si>
@@ -435,739 +435,298 @@
     <t xml:space="preserve">普票-内部代表-采购-商品产品-管理部门-11 </t>
   </si>
   <si>
+    <t>发票类别</t>
+  </si>
+  <si>
+    <t>进项税类别</t>
+  </si>
+  <si>
+    <t>专票</t>
+  </si>
+  <si>
+    <t>322.11</t>
+  </si>
+  <si>
+    <t>专票-内部代表-薪资福利-福利费-管理部门</t>
+  </si>
+  <si>
+    <t>有形动产租赁</t>
+  </si>
+  <si>
+    <t>322.21</t>
+  </si>
+  <si>
+    <t>专票-内部代表-行政支出-招待费-管理部门</t>
+  </si>
+  <si>
+    <t>不动产租赁服务</t>
+  </si>
+  <si>
+    <t>322.22</t>
+  </si>
+  <si>
+    <t>专票-内部代表-行政支出-办公费-管理部门</t>
+  </si>
+  <si>
+    <t>电信服务</t>
+  </si>
+  <si>
+    <t>322.23</t>
+  </si>
+  <si>
+    <t>运输服务</t>
+  </si>
+  <si>
+    <t>322.24</t>
+  </si>
+  <si>
+    <t>专票-内部代表-行政支出-通讯费-管理部门</t>
+  </si>
+  <si>
+    <t>322.25</t>
+  </si>
+  <si>
+    <t>专票-内部代表-行政支出-维修费-管理部门</t>
+  </si>
+  <si>
+    <t>322.26</t>
+  </si>
+  <si>
+    <t>专票-内部代表-行政支出-财产保险-管理部门</t>
+  </si>
+  <si>
+    <t>建筑安装服务</t>
+  </si>
+  <si>
+    <t>322.27</t>
+  </si>
+  <si>
+    <t>专票-内部代表-行政支出-设备租赁费-管理部门</t>
+  </si>
+  <si>
+    <t>金融保险服务</t>
+  </si>
+  <si>
+    <t>322.28</t>
+  </si>
+  <si>
+    <t>专票-内部代表-行政支出-银行费用-管理部门</t>
+  </si>
+  <si>
+    <t>322.31</t>
+  </si>
+  <si>
+    <t>专票-内部代表-差旅交通-差旅费-管理部门</t>
+  </si>
+  <si>
+    <t>322.32</t>
+  </si>
+  <si>
+    <t>专票-内部代表-差旅交通-交通费-管理部门</t>
+  </si>
+  <si>
+    <t>322.33</t>
+  </si>
+  <si>
+    <t>专票-内部代表-差旅交通-汽油费-管理部门</t>
+  </si>
+  <si>
+    <t>322.34</t>
+  </si>
+  <si>
+    <t>专票-内部代表-差旅交通-路桥费-管理部门</t>
+  </si>
+  <si>
+    <t>322.35</t>
+  </si>
+  <si>
+    <t>专票-内部代表-差旅交通-汽车维修费-管理部门</t>
+  </si>
+  <si>
+    <t>322.36</t>
+  </si>
+  <si>
+    <t>专票-内部代表-差旅交通-汽车保险费-管理部门</t>
+  </si>
+  <si>
+    <t>货物及加工，修理修配劳务</t>
+  </si>
+  <si>
+    <t>322.37</t>
+  </si>
+  <si>
+    <t>专票-内部代表-差旅交通-物流费-管理部门</t>
+  </si>
+  <si>
+    <t>322.41</t>
+  </si>
+  <si>
+    <t>专票-内部代表-房租物业-房租费-管理部门</t>
+  </si>
+  <si>
+    <t>生活服务</t>
+  </si>
+  <si>
+    <t>322.42</t>
+  </si>
+  <si>
+    <t>专票-内部代表-房租物业-物业费-管理部门</t>
+  </si>
+  <si>
+    <t>322.43</t>
+  </si>
+  <si>
+    <t>专票-内部代表-房租物业-水费-管理部门</t>
+  </si>
+  <si>
+    <t>322.44</t>
+  </si>
+  <si>
+    <t>专票-内部代表-房租物业-电费-管理部门</t>
+  </si>
+  <si>
+    <t>322.45</t>
+  </si>
+  <si>
+    <t>专票-内部代表-房租物业-仓储费-管理部门</t>
+  </si>
+  <si>
+    <t>322.46</t>
+  </si>
+  <si>
+    <t>专票-内部代表-房租物业-装修费-管理部门</t>
+  </si>
+  <si>
+    <t>322.51</t>
+  </si>
+  <si>
+    <t>专票-内部代表-经营支出-广告费-管理部门-管理部门</t>
+  </si>
+  <si>
+    <t>322.52</t>
+  </si>
+  <si>
+    <t>专票-内部代表-经营支出-宣传费-管理部门-管理部门</t>
+  </si>
+  <si>
+    <t>322.53</t>
+  </si>
+  <si>
+    <t>专票-内部代表-经营支出-研发费-管理部门-管理部门</t>
+  </si>
+  <si>
+    <t>322.54</t>
+  </si>
+  <si>
+    <t>专票-内部代表-经营支出-会议费-管理部门-管理部门</t>
+  </si>
+  <si>
+    <t>322.55</t>
+  </si>
+  <si>
+    <t>专票-内部代表-经营支出-服务费-管理部门-管理部门</t>
+  </si>
+  <si>
+    <t>322.56</t>
+  </si>
+  <si>
+    <t>专票-内部代表-经营支出-咨询费-管理部门-管理部门</t>
+  </si>
+  <si>
+    <t>322.57</t>
+  </si>
+  <si>
+    <t>专票-内部代表-经营支出-认证费-管理部门-管理部门</t>
+  </si>
+  <si>
+    <t>322.58</t>
+  </si>
+  <si>
+    <t>专票-内部代表-经营支出-专利费-管理部门-管理部门</t>
+  </si>
+  <si>
+    <t>322.59</t>
+  </si>
+  <si>
+    <t>专票-内部代表-经营支出-工会经费-管理部门-管理部门</t>
+  </si>
+  <si>
+    <t>322.510</t>
+  </si>
+  <si>
+    <t>专票-内部代表-经营支出-其他-管理部门-管理部门</t>
+  </si>
+  <si>
+    <t>322.61</t>
+  </si>
+  <si>
+    <t>专票-内部代表-采购-原材料-管理部门-管理部门</t>
+  </si>
+  <si>
+    <t>322.62</t>
+  </si>
+  <si>
+    <t>专票-内部代表-采购-商品产品-管理部门-管理部门</t>
+  </si>
+  <si>
+    <t>发票状态</t>
+  </si>
+  <si>
+    <t>税控自开</t>
+  </si>
+  <si>
+    <t>商品销售</t>
+  </si>
+  <si>
+    <t>4102.11</t>
+  </si>
+  <si>
+    <t>普票-税控自开-内部代表-商品销售-管理部门</t>
+  </si>
+  <si>
+    <t>税务代开</t>
+  </si>
+  <si>
+    <t>服务收入</t>
+  </si>
+  <si>
+    <t>4112.21</t>
+  </si>
+  <si>
+    <t>普票-税控代开-内部代表-服务收入-管理部门</t>
+  </si>
+  <si>
+    <t>4202.11</t>
+  </si>
+  <si>
+    <t>专票-税控自开-内部代表-商品销售-管理部门</t>
+  </si>
+  <si>
+    <t>4212.21</t>
+  </si>
+  <si>
+    <t>专票-税控代开-内部代表-服务收入-管理部门</t>
+  </si>
+  <si>
+    <t>无票</t>
+  </si>
+  <si>
+    <t>未开发票</t>
+  </si>
+  <si>
+    <t>4332.11</t>
+  </si>
+  <si>
+    <t>无票-未开发票-内部代表-商品销售-管理部门</t>
+  </si>
+  <si>
+    <t>4332.21</t>
+  </si>
+  <si>
+    <t>无票-未开发票-内部代表-服务收入-管理部门</t>
+  </si>
+  <si>
     <t>销售部门</t>
-  </si>
-  <si>
-    <t>311.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">普票-内部代表-薪资福利-福利费-销售部门-1.5 </t>
-  </si>
-  <si>
-    <t>311.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">普票-内部代表-薪资福利-劳务费-销售部门-3 </t>
-  </si>
-  <si>
-    <t>311.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">普票-内部代表-行政支出-招待费-销售部门-5 </t>
-  </si>
-  <si>
-    <t>311.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">普票-内部代表-行政支出-办公费-销售部门-6 </t>
-  </si>
-  <si>
-    <t>311.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">普票-内部代表-行政支出-快递费-销售部门-11 </t>
-  </si>
-  <si>
-    <t>311.24</t>
-  </si>
-  <si>
-    <t>普票-内部代表-行政支出-通讯费-销售部门-13</t>
-  </si>
-  <si>
-    <t>311.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">普票-内部代表-行政支出-维修费-销售部门-17 </t>
-  </si>
-  <si>
-    <t>311.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">普票-内部代表-行政支出-财产保险费-销售部门-1.5 </t>
-  </si>
-  <si>
-    <t>311.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">普票-内部代表-行政支出-设备租赁费-销售部门-3 </t>
-  </si>
-  <si>
-    <t>311.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">普票-内部代表-行政支出-银行费用-销售部门-5 </t>
-  </si>
-  <si>
-    <t>311.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">普票-内部代表-差旅交通-差旅费-销售部门-6 </t>
-  </si>
-  <si>
-    <t>311.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">普票-内部代表-差旅交通-交通费-销售部门-11 </t>
-  </si>
-  <si>
-    <t>311.33</t>
-  </si>
-  <si>
-    <t>普票-内部代表-差旅交通-汽油费-销售部门-13</t>
-  </si>
-  <si>
-    <t>311.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">普票-内部代表-差旅交通-路桥费-销售部门-17 </t>
-  </si>
-  <si>
-    <t>311.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">普票-内部代表-差旅交通-汽车维修费-销售部门-1.5 </t>
-  </si>
-  <si>
-    <t>311.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">普票-内部代表-差旅交通-汽车保险-销售部门-3 </t>
-  </si>
-  <si>
-    <t>311.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">普票-内部代表-差旅交通-物流费-销售部门-5 </t>
-  </si>
-  <si>
-    <t>311.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">普票-内部代表-房租物业-房租费-销售部门-6 </t>
-  </si>
-  <si>
-    <t>311.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">普票-内部代表-房租物业-物业费-销售部门-11 </t>
-  </si>
-  <si>
-    <t>311.43</t>
-  </si>
-  <si>
-    <t>普票-内部代表-房租物业-水费-销售部门-13</t>
-  </si>
-  <si>
-    <t>311.44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">普票-内部代表-房租物业-电费-销售部门-17 </t>
-  </si>
-  <si>
-    <t>311.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">普票-内部代表-房租物业-仓储费-销售部门-1.5 </t>
-  </si>
-  <si>
-    <t>311.46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">普票-内部代表-房租物业-装修费-销售部门-3 </t>
-  </si>
-  <si>
-    <t>311.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">普票-内部代表-经营支出-广告费-销售部门-5 </t>
-  </si>
-  <si>
-    <t>311.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">普票-内部代表-经营支出-宣传费-销售部门-6 </t>
-  </si>
-  <si>
-    <t>311.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">普票-内部代表-经营支出-研发费-销售部门-11 </t>
-  </si>
-  <si>
-    <t>311.54</t>
-  </si>
-  <si>
-    <t>普票-内部代表-经营支出-会议费-销售部门-13</t>
-  </si>
-  <si>
-    <t>311.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">普票-内部代表-经营支出-服务费-销售部门-17 </t>
-  </si>
-  <si>
-    <t>311.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">普票-内部代表-经营支出-咨询费-销售部门-1.5 </t>
-  </si>
-  <si>
-    <t>311.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">普票-内部代表-经营支出-认证费-销售部门-3 </t>
-  </si>
-  <si>
-    <t>311.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">普票-内部代表-经营支出-专利费-销售部门-5 </t>
-  </si>
-  <si>
-    <t>311.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">普票-内部代表-经营支出-工会经费-销售部门-6 </t>
-  </si>
-  <si>
-    <t>311.510</t>
-  </si>
-  <si>
-    <t xml:space="preserve">普票-内部代表-经营支出-其他-销售部门-11 </t>
-  </si>
-  <si>
-    <t>311.61</t>
-  </si>
-  <si>
-    <t>普票-内部代表-其他收支-行政罚款-销售部门-13</t>
-  </si>
-  <si>
-    <t>311.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">普票-内部代表-其他收支-税务滞纳金-销售部门-17 </t>
-  </si>
-  <si>
-    <t>311.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">普票-内部代表-税费-印花税-销售部门-1.5 </t>
-  </si>
-  <si>
-    <t>311.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">普票-内部代表-税费-残保金-销售部门-3 </t>
-  </si>
-  <si>
-    <t>311.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">普票-内部代表-税费-减免税款-销售部门-5 </t>
-  </si>
-  <si>
-    <t>311.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">普票-内部代表-采购-原材料-销售部门-6 </t>
-  </si>
-  <si>
-    <t>311.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">普票-内部代表-采购-商品产品-销售部门-11 </t>
-  </si>
-  <si>
-    <t>发票类别</t>
-  </si>
-  <si>
-    <t>进项税类别</t>
-  </si>
-  <si>
-    <t>专票</t>
-  </si>
-  <si>
-    <t>322.11</t>
-  </si>
-  <si>
-    <t>专票-内部代表-薪资福利-福利费-管理部门</t>
-  </si>
-  <si>
-    <t>有形动产租赁</t>
-  </si>
-  <si>
-    <t>322.21</t>
-  </si>
-  <si>
-    <t>专票-内部代表-行政支出-招待费-管理部门</t>
-  </si>
-  <si>
-    <t>不动产租赁服务</t>
-  </si>
-  <si>
-    <t>322.22</t>
-  </si>
-  <si>
-    <t>专票-内部代表-行政支出-办公费-管理部门</t>
-  </si>
-  <si>
-    <t>电信服务</t>
-  </si>
-  <si>
-    <t>322.23</t>
-  </si>
-  <si>
-    <t>运输服务</t>
-  </si>
-  <si>
-    <t>322.24</t>
-  </si>
-  <si>
-    <t>专票-内部代表-行政支出-通讯费-管理部门</t>
-  </si>
-  <si>
-    <t>322.25</t>
-  </si>
-  <si>
-    <t>专票-内部代表-行政支出-维修费-管理部门</t>
-  </si>
-  <si>
-    <t>322.26</t>
-  </si>
-  <si>
-    <t>专票-内部代表-行政支出-财产保险-管理部门</t>
-  </si>
-  <si>
-    <t>建筑安装服务</t>
-  </si>
-  <si>
-    <t>322.27</t>
-  </si>
-  <si>
-    <t>专票-内部代表-行政支出-设备租赁费-管理部门</t>
-  </si>
-  <si>
-    <t>金融保险服务</t>
-  </si>
-  <si>
-    <t>322.28</t>
-  </si>
-  <si>
-    <t>专票-内部代表-行政支出-银行费用-管理部门</t>
-  </si>
-  <si>
-    <t>322.31</t>
-  </si>
-  <si>
-    <t>专票-内部代表-差旅交通-差旅费-管理部门</t>
-  </si>
-  <si>
-    <t>322.32</t>
-  </si>
-  <si>
-    <t>专票-内部代表-差旅交通-交通费-管理部门</t>
-  </si>
-  <si>
-    <t>322.33</t>
-  </si>
-  <si>
-    <t>专票-内部代表-差旅交通-汽油费-管理部门</t>
-  </si>
-  <si>
-    <t>322.34</t>
-  </si>
-  <si>
-    <t>专票-内部代表-差旅交通-路桥费-管理部门</t>
-  </si>
-  <si>
-    <t>322.35</t>
-  </si>
-  <si>
-    <t>专票-内部代表-差旅交通-汽车维修费-管理部门</t>
-  </si>
-  <si>
-    <t>322.36</t>
-  </si>
-  <si>
-    <t>专票-内部代表-差旅交通-汽车保险费-管理部门</t>
-  </si>
-  <si>
-    <t>货物及加工，修理修配劳务</t>
-  </si>
-  <si>
-    <t>322.37</t>
-  </si>
-  <si>
-    <t>专票-内部代表-差旅交通-物流费-管理部门</t>
-  </si>
-  <si>
-    <t>322.41</t>
-  </si>
-  <si>
-    <t>专票-内部代表-房租物业-房租费-管理部门</t>
-  </si>
-  <si>
-    <t>生活服务</t>
-  </si>
-  <si>
-    <t>322.42</t>
-  </si>
-  <si>
-    <t>专票-内部代表-房租物业-物业费-管理部门</t>
-  </si>
-  <si>
-    <t>322.43</t>
-  </si>
-  <si>
-    <t>专票-内部代表-房租物业-水费-管理部门</t>
-  </si>
-  <si>
-    <t>322.44</t>
-  </si>
-  <si>
-    <t>专票-内部代表-房租物业-电费-管理部门</t>
-  </si>
-  <si>
-    <t>322.45</t>
-  </si>
-  <si>
-    <t>专票-内部代表-房租物业-仓储费-管理部门</t>
-  </si>
-  <si>
-    <t>322.46</t>
-  </si>
-  <si>
-    <t>专票-内部代表-房租物业-装修费-管理部门</t>
-  </si>
-  <si>
-    <t>322.51</t>
-  </si>
-  <si>
-    <t>专票-内部代表-经营支出-广告费-管理部门-管理部门</t>
-  </si>
-  <si>
-    <t>322.52</t>
-  </si>
-  <si>
-    <t>专票-内部代表-经营支出-宣传费-管理部门-管理部门</t>
-  </si>
-  <si>
-    <t>322.53</t>
-  </si>
-  <si>
-    <t>专票-内部代表-经营支出-研发费-管理部门-管理部门</t>
-  </si>
-  <si>
-    <t>322.54</t>
-  </si>
-  <si>
-    <t>专票-内部代表-经营支出-会议费-管理部门-管理部门</t>
-  </si>
-  <si>
-    <t>322.55</t>
-  </si>
-  <si>
-    <t>专票-内部代表-经营支出-服务费-管理部门-管理部门</t>
-  </si>
-  <si>
-    <t>322.56</t>
-  </si>
-  <si>
-    <t>专票-内部代表-经营支出-咨询费-管理部门-管理部门</t>
-  </si>
-  <si>
-    <t>322.57</t>
-  </si>
-  <si>
-    <t>专票-内部代表-经营支出-认证费-管理部门-管理部门</t>
-  </si>
-  <si>
-    <t>322.58</t>
-  </si>
-  <si>
-    <t>专票-内部代表-经营支出-专利费-管理部门-管理部门</t>
-  </si>
-  <si>
-    <t>322.59</t>
-  </si>
-  <si>
-    <t>专票-内部代表-经营支出-工会经费-管理部门-管理部门</t>
-  </si>
-  <si>
-    <t>322.510</t>
-  </si>
-  <si>
-    <t>专票-内部代表-经营支出-其他-管理部门-管理部门</t>
-  </si>
-  <si>
-    <t>322.61</t>
-  </si>
-  <si>
-    <t>专票-内部代表-采购-原材料-管理部门-管理部门</t>
-  </si>
-  <si>
-    <t>322.62</t>
-  </si>
-  <si>
-    <t>专票-内部代表-采购-商品产品-管理部门-管理部门</t>
-  </si>
-  <si>
-    <t>321.11</t>
-  </si>
-  <si>
-    <t>专票-内部代表-薪资福利-福利费-销售部门</t>
-  </si>
-  <si>
-    <t>321.21</t>
-  </si>
-  <si>
-    <t>专票-内部代表-行政支出-招待费-销售部门</t>
-  </si>
-  <si>
-    <t>321.22</t>
-  </si>
-  <si>
-    <t>专票-内部代表-行政支出-办公费-销售部门</t>
-  </si>
-  <si>
-    <t>321.23</t>
-  </si>
-  <si>
-    <t>321.24</t>
-  </si>
-  <si>
-    <t>专票-内部代表-行政支出-通讯费-销售部门</t>
-  </si>
-  <si>
-    <t>321.25</t>
-  </si>
-  <si>
-    <t>专票-内部代表-行政支出-维修费-销售部门</t>
-  </si>
-  <si>
-    <t>321.26</t>
-  </si>
-  <si>
-    <t>专票-内部代表-行政支出-财产保险-销售部门</t>
-  </si>
-  <si>
-    <t>321.27</t>
-  </si>
-  <si>
-    <t>专票-内部代表-行政支出-设备租赁费-销售部门</t>
-  </si>
-  <si>
-    <t>321.28</t>
-  </si>
-  <si>
-    <t>专票-内部代表-行政支出-银行费用-销售部门</t>
-  </si>
-  <si>
-    <t>321.31</t>
-  </si>
-  <si>
-    <t>专票-内部代表-差旅交通-差旅费-销售部门</t>
-  </si>
-  <si>
-    <t>321.32</t>
-  </si>
-  <si>
-    <t>专票-内部代表-差旅交通-交通费-销售部门</t>
-  </si>
-  <si>
-    <t>321.33</t>
-  </si>
-  <si>
-    <t>专票-内部代表-差旅交通-汽油费-销售部门</t>
-  </si>
-  <si>
-    <t>321.34</t>
-  </si>
-  <si>
-    <t>专票-内部代表-差旅交通-路桥费-销售部门</t>
-  </si>
-  <si>
-    <t>321.35</t>
-  </si>
-  <si>
-    <t>专票-内部代表-差旅交通-汽车维修费-销售部门</t>
-  </si>
-  <si>
-    <t>321.36</t>
-  </si>
-  <si>
-    <t>专票-内部代表-差旅交通-汽车保险费-销售部门</t>
-  </si>
-  <si>
-    <t>321.37</t>
-  </si>
-  <si>
-    <t>专票-内部代表-差旅交通-物流费-销售部门</t>
-  </si>
-  <si>
-    <t>321.41</t>
-  </si>
-  <si>
-    <t>专票-内部代表-房租物业-房租费-销售部门</t>
-  </si>
-  <si>
-    <t>321.42</t>
-  </si>
-  <si>
-    <t>专票-内部代表-房租物业-物业费-销售部门</t>
-  </si>
-  <si>
-    <t>321.43</t>
-  </si>
-  <si>
-    <t>专票-内部代表-房租物业-水费-销售部门</t>
-  </si>
-  <si>
-    <t>321.44</t>
-  </si>
-  <si>
-    <t>专票-内部代表-房租物业-电费-销售部门</t>
-  </si>
-  <si>
-    <t>321.45</t>
-  </si>
-  <si>
-    <t>专票-内部代表-房租物业-仓储费-销售部门</t>
-  </si>
-  <si>
-    <t>321.46</t>
-  </si>
-  <si>
-    <t>专票-内部代表-房租物业-装修费-销售部门</t>
-  </si>
-  <si>
-    <t>321.51</t>
-  </si>
-  <si>
-    <t>专票-内部代表-经营支出-广告费-销售部门-销售部门</t>
-  </si>
-  <si>
-    <t>321.52</t>
-  </si>
-  <si>
-    <t>专票-内部代表-经营支出-宣传费-销售部门-销售部门</t>
-  </si>
-  <si>
-    <t>321.53</t>
-  </si>
-  <si>
-    <t>专票-内部代表-经营支出-研发费-销售部门-销售部门</t>
-  </si>
-  <si>
-    <t>321.54</t>
-  </si>
-  <si>
-    <t>专票-内部代表-经营支出-会议费-销售部门-销售部门</t>
-  </si>
-  <si>
-    <t>321.55</t>
-  </si>
-  <si>
-    <t>专票-内部代表-经营支出-服务费-销售部门-销售部门</t>
-  </si>
-  <si>
-    <t>321.56</t>
-  </si>
-  <si>
-    <t>专票-内部代表-经营支出-咨询费-销售部门-销售部门</t>
-  </si>
-  <si>
-    <t>321.57</t>
-  </si>
-  <si>
-    <t>专票-内部代表-经营支出-认证费-销售部门-销售部门</t>
-  </si>
-  <si>
-    <t>321.58</t>
-  </si>
-  <si>
-    <t>专票-内部代表-经营支出-专利费-销售部门-销售部门</t>
-  </si>
-  <si>
-    <t>321.59</t>
-  </si>
-  <si>
-    <t>专票-内部代表-经营支出-工会经费-销售部门-销售部门</t>
-  </si>
-  <si>
-    <t>321.510</t>
-  </si>
-  <si>
-    <t>专票-内部代表-经营支出-其他-销售部门-销售部门</t>
-  </si>
-  <si>
-    <t>321.61</t>
-  </si>
-  <si>
-    <t>专票-内部代表-采购-原材料-销售部门-销售部门</t>
-  </si>
-  <si>
-    <t>321.62</t>
-  </si>
-  <si>
-    <t>专票-内部代表-采购-商品产品-销售部门-销售部门</t>
-  </si>
-  <si>
-    <t>发票状态</t>
-  </si>
-  <si>
-    <t>税控自开</t>
-  </si>
-  <si>
-    <t>商品销售</t>
-  </si>
-  <si>
-    <t>4102.11</t>
-  </si>
-  <si>
-    <t>普票-税控自开-内部代表-商品销售-管理部门</t>
-  </si>
-  <si>
-    <t>税务代开</t>
-  </si>
-  <si>
-    <t>服务收入</t>
-  </si>
-  <si>
-    <t>4112.21</t>
-  </si>
-  <si>
-    <t>普票-税控代开-内部代表-服务收入-管理部门</t>
-  </si>
-  <si>
-    <t>4202.11</t>
-  </si>
-  <si>
-    <t>专票-税控自开-内部代表-商品销售-管理部门</t>
-  </si>
-  <si>
-    <t>4212.21</t>
-  </si>
-  <si>
-    <t>专票-税控代开-内部代表-服务收入-管理部门</t>
-  </si>
-  <si>
-    <t>无票</t>
-  </si>
-  <si>
-    <t>未开发票</t>
-  </si>
-  <si>
-    <t>4332.11</t>
-  </si>
-  <si>
-    <t>无票-未开发票-内部代表-商品销售-管理部门</t>
-  </si>
-  <si>
-    <t>4332.21</t>
-  </si>
-  <si>
-    <t>无票-未开发票-内部代表-服务收入-管理部门</t>
   </si>
   <si>
     <t>4101.11</t>
@@ -1833,7 +1392,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1855,19 +1414,7 @@
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
@@ -2233,10 +1780,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2290,10 +1837,10 @@
       <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H2" t="s">
@@ -2316,10 +1863,10 @@
       <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="9" t="s">
         <v>18</v>
       </c>
       <c r="H3" t="s">
@@ -2342,10 +1889,10 @@
       <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="9" t="s">
         <v>22</v>
       </c>
       <c r="H4" t="s">
@@ -2368,10 +1915,10 @@
       <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="9" t="s">
         <v>26</v>
       </c>
       <c r="H5" t="s">
@@ -2394,10 +1941,10 @@
       <c r="E6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="9" t="s">
         <v>30</v>
       </c>
       <c r="H6" t="s">
@@ -2420,10 +1967,10 @@
       <c r="E7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="9" t="s">
         <v>34</v>
       </c>
       <c r="H7" t="s">
@@ -2446,10 +1993,10 @@
       <c r="E8" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="9" t="s">
         <v>38</v>
       </c>
       <c r="H8" t="s">
@@ -2472,10 +2019,10 @@
       <c r="E9" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="9" t="s">
         <v>41</v>
       </c>
       <c r="H9" t="s">
@@ -2498,10 +2045,10 @@
       <c r="E10" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="9" t="s">
         <v>44</v>
       </c>
       <c r="H10" t="s">
@@ -2524,10 +2071,10 @@
       <c r="E11" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="9" t="s">
         <v>47</v>
       </c>
       <c r="H11" t="s">
@@ -2550,10 +2097,10 @@
       <c r="E12" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="9" t="s">
         <v>50</v>
       </c>
       <c r="H12" t="s">
@@ -2576,10 +2123,10 @@
       <c r="E13" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="9" t="s">
         <v>53</v>
       </c>
       <c r="H13" t="s">
@@ -2602,10 +2149,10 @@
       <c r="E14" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="9" t="s">
         <v>56</v>
       </c>
       <c r="H14" t="s">
@@ -2628,10 +2175,10 @@
       <c r="E15" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="9" t="s">
         <v>59</v>
       </c>
       <c r="H15" t="s">
@@ -2654,10 +2201,10 @@
       <c r="E16" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="9" t="s">
         <v>62</v>
       </c>
       <c r="H16" t="s">
@@ -2680,10 +2227,10 @@
       <c r="E17" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="9" t="s">
         <v>65</v>
       </c>
       <c r="H17" t="s">
@@ -2706,10 +2253,10 @@
       <c r="E18" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="G18" s="9" t="s">
         <v>68</v>
       </c>
       <c r="H18" t="s">
@@ -2732,10 +2279,10 @@
       <c r="E19" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="9" t="s">
         <v>71</v>
       </c>
       <c r="H19" t="s">
@@ -2758,10 +2305,10 @@
       <c r="E20" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G20" s="9" t="s">
         <v>74</v>
       </c>
       <c r="H20" t="s">
@@ -2784,10 +2331,10 @@
       <c r="E21" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="G21" s="9" t="s">
         <v>77</v>
       </c>
       <c r="H21" t="s">
@@ -2810,10 +2357,10 @@
       <c r="E22" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="G22" s="9" t="s">
         <v>80</v>
       </c>
       <c r="H22" t="s">
@@ -2836,10 +2383,10 @@
       <c r="E23" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="G23" s="9" t="s">
         <v>83</v>
       </c>
       <c r="H23" t="s">
@@ -2862,10 +2409,10 @@
       <c r="E24" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="G24" s="9" t="s">
         <v>86</v>
       </c>
       <c r="H24" t="s">
@@ -2888,10 +2435,10 @@
       <c r="E25" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="13" t="s">
+      <c r="G25" s="9" t="s">
         <v>89</v>
       </c>
       <c r="H25" t="s">
@@ -2914,10 +2461,10 @@
       <c r="E26" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G26" s="13" t="s">
+      <c r="G26" s="9" t="s">
         <v>92</v>
       </c>
       <c r="H26" t="s">
@@ -2940,10 +2487,10 @@
       <c r="E27" t="s">
         <v>12</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G27" s="13" t="s">
+      <c r="G27" s="9" t="s">
         <v>95</v>
       </c>
       <c r="H27" t="s">
@@ -2966,10 +2513,10 @@
       <c r="E28" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G28" s="13" t="s">
+      <c r="G28" s="9" t="s">
         <v>98</v>
       </c>
       <c r="H28" t="s">
@@ -2992,10 +2539,10 @@
       <c r="E29" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G29" s="13" t="s">
+      <c r="G29" s="9" t="s">
         <v>101</v>
       </c>
       <c r="H29" t="s">
@@ -3018,10 +2565,10 @@
       <c r="E30" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="F30" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G30" s="13" t="s">
+      <c r="G30" s="9" t="s">
         <v>104</v>
       </c>
       <c r="H30" t="s">
@@ -3044,10 +2591,10 @@
       <c r="E31" t="s">
         <v>12</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G31" s="13" t="s">
+      <c r="G31" s="9" t="s">
         <v>107</v>
       </c>
       <c r="H31" t="s">
@@ -3070,10 +2617,10 @@
       <c r="E32" t="s">
         <v>12</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="F32" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G32" s="13" t="s">
+      <c r="G32" s="9" t="s">
         <v>110</v>
       </c>
       <c r="H32" t="s">
@@ -3096,10 +2643,10 @@
       <c r="E33" t="s">
         <v>12</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G33" s="13" t="s">
+      <c r="G33" s="9" t="s">
         <v>113</v>
       </c>
       <c r="H33" t="s">
@@ -3122,10 +2669,10 @@
       <c r="E34" t="s">
         <v>12</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F34" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G34" s="13" t="s">
+      <c r="G34" s="9" t="s">
         <v>116</v>
       </c>
       <c r="H34" t="s">
@@ -3148,10 +2695,10 @@
       <c r="E35" t="s">
         <v>12</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F35" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G35" s="13" t="s">
+      <c r="G35" s="9" t="s">
         <v>119</v>
       </c>
       <c r="H35" t="s">
@@ -3174,10 +2721,10 @@
       <c r="E36" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="F36" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G36" s="13" t="s">
+      <c r="G36" s="9" t="s">
         <v>122</v>
       </c>
       <c r="H36" t="s">
@@ -3200,10 +2747,10 @@
       <c r="E37" t="s">
         <v>12</v>
       </c>
-      <c r="F37" s="12" t="s">
+      <c r="F37" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G37" s="13" t="s">
+      <c r="G37" s="9" t="s">
         <v>125</v>
       </c>
       <c r="H37" t="s">
@@ -3226,10 +2773,10 @@
       <c r="E38" t="s">
         <v>12</v>
       </c>
-      <c r="F38" s="13" t="s">
+      <c r="F38" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G38" s="13" t="s">
+      <c r="G38" s="9" t="s">
         <v>128</v>
       </c>
       <c r="H38" t="s">
@@ -3252,10 +2799,10 @@
       <c r="E39" t="s">
         <v>12</v>
       </c>
-      <c r="F39" s="12" t="s">
+      <c r="F39" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G39" s="13" t="s">
+      <c r="G39" s="9" t="s">
         <v>131</v>
       </c>
       <c r="H39" t="s">
@@ -3278,10 +2825,10 @@
       <c r="E40" t="s">
         <v>12</v>
       </c>
-      <c r="F40" s="13" t="s">
+      <c r="F40" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G40" s="13" t="s">
+      <c r="G40" s="9" t="s">
         <v>134</v>
       </c>
       <c r="H40" t="s">
@@ -3304,1071 +2851,31 @@
       <c r="E41" t="s">
         <v>12</v>
       </c>
-      <c r="F41" s="13" t="s">
+      <c r="F41" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G41" s="13" t="s">
+      <c r="G41" s="9" t="s">
         <v>137</v>
       </c>
       <c r="H41" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="42" s="7" customFormat="1" spans="1:8">
-      <c r="A42" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="43" s="8" customFormat="1" spans="1:8">
-      <c r="A43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="44" s="8" customFormat="1" spans="1:8">
-      <c r="A44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="H44" s="8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="45" s="8" customFormat="1" spans="1:8">
-      <c r="A45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="H45" s="8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="46" s="8" customFormat="1" spans="1:8">
-      <c r="A46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="H46" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="47" s="8" customFormat="1" spans="1:8">
-      <c r="A47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47" t="s">
-        <v>10</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="H47" s="8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="48" s="8" customFormat="1" spans="1:8">
-      <c r="A48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="H48" s="8" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="49" s="8" customFormat="1" spans="1:8">
-      <c r="A49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="H49" s="8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="50" s="8" customFormat="1" spans="1:8">
-      <c r="A50" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H50" s="8" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="51" s="8" customFormat="1" spans="1:8">
-      <c r="A51" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51" t="s">
-        <v>10</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="H51" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="52" s="8" customFormat="1" spans="1:8">
-      <c r="A52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52" t="s">
-        <v>10</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="H52" s="8" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="53" s="8" customFormat="1" spans="1:8">
-      <c r="A53" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" t="s">
-        <v>10</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G53" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="H53" s="8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="54" s="8" customFormat="1" spans="1:8">
-      <c r="A54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C54" t="s">
-        <v>10</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="H54" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="55" s="8" customFormat="1" spans="1:8">
-      <c r="A55" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" t="s">
-        <v>10</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G55" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="H55" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="56" s="8" customFormat="1" spans="1:8">
-      <c r="A56" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56" t="s">
-        <v>10</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="H56" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="57" s="8" customFormat="1" spans="1:8">
-      <c r="A57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C57" t="s">
-        <v>10</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G57" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="H57" s="8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="58" s="8" customFormat="1" spans="1:8">
-      <c r="A58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C58" t="s">
-        <v>10</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F58" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G58" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="H58" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="59" s="8" customFormat="1" spans="1:8">
-      <c r="A59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C59" t="s">
-        <v>10</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G59" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="H59" s="8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="60" s="8" customFormat="1" spans="1:8">
-      <c r="A60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C60" t="s">
-        <v>10</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G60" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="H60" s="8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="61" s="8" customFormat="1" spans="1:8">
-      <c r="A61" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C61" t="s">
-        <v>10</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G61" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="H61" s="8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="62" s="8" customFormat="1" spans="1:8">
-      <c r="A62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C62" t="s">
-        <v>10</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G62" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="H62" s="8" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="63" s="8" customFormat="1" spans="1:8">
-      <c r="A63" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C63" t="s">
-        <v>10</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F63" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="H63" s="8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="64" s="8" customFormat="1" spans="1:8">
-      <c r="A64" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C64" t="s">
-        <v>10</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G64" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="H64" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="65" s="8" customFormat="1" spans="1:8">
-      <c r="A65" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C65" t="s">
-        <v>10</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F65" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G65" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="H65" s="8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="66" s="8" customFormat="1" spans="1:8">
-      <c r="A66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C66" t="s">
-        <v>10</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F66" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G66" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="H66" s="8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="67" s="8" customFormat="1" spans="1:8">
-      <c r="A67" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C67" t="s">
-        <v>10</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G67" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="H67" s="8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="68" s="8" customFormat="1" spans="1:8">
-      <c r="A68" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C68" t="s">
-        <v>10</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E68" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F68" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G68" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="H68" s="8" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="69" s="8" customFormat="1" spans="1:8">
-      <c r="A69" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C69" t="s">
-        <v>10</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G69" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="H69" s="8" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="70" s="8" customFormat="1" spans="1:8">
-      <c r="A70" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C70" t="s">
-        <v>10</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F70" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G70" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="H70" s="8" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="71" s="8" customFormat="1" spans="1:8">
-      <c r="A71" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C71" t="s">
-        <v>10</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E71" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G71" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="H71" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="72" s="8" customFormat="1" spans="1:8">
-      <c r="A72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C72" t="s">
-        <v>10</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F72" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G72" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="H72" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="73" s="8" customFormat="1" spans="1:8">
-      <c r="A73" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C73" t="s">
-        <v>10</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F73" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G73" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="H73" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="74" s="8" customFormat="1" spans="1:8">
-      <c r="A74" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C74" t="s">
-        <v>10</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="E74" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F74" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G74" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="H74" s="8" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="75" s="8" customFormat="1" spans="1:8">
-      <c r="A75" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C75" t="s">
-        <v>10</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F75" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G75" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="H75" s="8" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="76" s="8" customFormat="1" spans="1:8">
-      <c r="A76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C76" t="s">
-        <v>10</v>
-      </c>
-      <c r="D76" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="E76" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F76" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G76" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="H76" s="8" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="77" s="8" customFormat="1" spans="1:8">
-      <c r="A77" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C77" t="s">
-        <v>10</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F77" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G77" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="H77" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="78" s="8" customFormat="1" spans="1:8">
-      <c r="A78" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C78" t="s">
-        <v>10</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="E78" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F78" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G78" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="H78" s="8" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="79" s="8" customFormat="1" spans="1:8">
-      <c r="A79" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C79" t="s">
-        <v>10</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F79" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G79" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="H79" s="8" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="80" s="8" customFormat="1" spans="1:8">
-      <c r="A80" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C80" t="s">
-        <v>10</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="E80" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F80" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G80" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="H80" s="8" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="81" s="8" customFormat="1" spans="1:8">
-      <c r="A81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C81" t="s">
-        <v>10</v>
-      </c>
-      <c r="D81" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E81" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F81" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G81" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="H81" s="8" t="s">
-        <v>219</v>
-      </c>
-    </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43:E61 E62:E81">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41">
       <formula1>"销售部门,管理部门"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F9 F16 F23 F30 F37 F42 F49 F56 F63 F70 F77">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F9 F16 F23 F30 F37">
       <formula1>"'1.5%,'3%,'5%,'6%,'11%,'13%,'17%"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3 F4 F10 F11 F17 F18 F24 F25 F31 F32 F38 F39 F43 F44 F50 F51 F57 F58 F64 F65 F71 F72 F78 F79 F5:F8 F12:F15 F19:F22 F26:F29 F33:F36 F40:F41 F45:F48 F52:F55 F59:F62 F66:F69 F73:F76 F80:F81">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3 F4 F10 F11 F17 F18 F24 F25 F31 F32 F38 F39 F5:F8 F12:F15 F19:F22 F26:F29 F33:F36 F40:F41">
       <formula1>"1.5%,'3%,'5%,'6%,'11%,'13%,'17%"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3 B4:B5 B6:B7 B8:B9 B10:B11 B12:B13 B14:B15 B16:B17 B18:B19 B20:B21 B22:B23 B24:B25 B26:B27 B28:B29 B30:B31 B32:B33 B34:B35 B36:B37 B38:B39 B40:B41 B42:B43 B44:B45 B46:B47 B48:B49 B50:B51 B52:B53 B54:B55 B56:B57 B58:B59 B60:B61 B62:B63 B64:B65 B66:B67 B68:B69 B70:B71 B72:B73 B74:B75 B76:B77 B78:B79 B80:B81">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3 B4:B5 B6:B7 B8:B9 B10:B11 B12:B13 B14:B15 B16:B17 B18:B19 B20:B21 B22:B23 B24:B25 B26:B27 B28:B29 B30:B31 B32:B33 B34:B35 B36:B37 B38:B39 B40:B41">
       <formula1>"普票,专票"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D41 D42:D81">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D41">
       <formula1>"福利费,劳务费,招待费,办公费,快递费,通讯费,维修费,财产保险费,设备租赁费,银行费用,差旅费,交通费,汽油费,路桥费,汽车维修费,汽车保险,物流费,房租费,物业费,水费,电费,仓储费,装修费,广告费,宣传费,研发费,会议费,服务费,咨询费,认证费,专利费,工会经费,其他,行政罚款,税务滞纳金,印花税,残保金,减免税款,原材料,商品产品"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4381,10 +2888,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="A36" sqref="$A36:$XFD69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4403,7 +2910,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>220</v>
+        <v>139</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -4418,7 +2925,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>221</v>
+        <v>140</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -4432,7 +2939,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -4443,17 +2950,17 @@
       <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
         <v>115</v>
       </c>
-      <c r="H2" s="13" t="s">
-        <v>223</v>
+      <c r="H2" s="9" t="s">
+        <v>142</v>
       </c>
       <c r="I2" t="s">
-        <v>224</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4461,7 +2968,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -4472,17 +2979,17 @@
       <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>225</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>226</v>
+        <v>144</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>145</v>
       </c>
       <c r="I3" t="s">
-        <v>227</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -4490,7 +2997,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -4501,17 +3008,17 @@
       <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="9" t="s">
         <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>228</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>229</v>
+        <v>147</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="I4" t="s">
-        <v>230</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -4519,7 +3026,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -4530,17 +3037,17 @@
       <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="9" t="s">
         <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>231</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>232</v>
+        <v>150</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>151</v>
       </c>
       <c r="I5" t="s">
-        <v>227</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -4548,7 +3055,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -4559,17 +3066,17 @@
       <c r="E6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="9" t="s">
         <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>233</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>234</v>
+        <v>152</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>153</v>
       </c>
       <c r="I6" t="s">
-        <v>235</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -4577,7 +3084,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -4588,17 +3095,17 @@
       <c r="E7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="9" t="s">
         <v>33</v>
       </c>
       <c r="G7" t="s">
         <v>115</v>
       </c>
-      <c r="H7" s="13" t="s">
-        <v>236</v>
+      <c r="H7" s="9" t="s">
+        <v>155</v>
       </c>
       <c r="I7" t="s">
-        <v>237</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -4606,7 +3113,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -4617,17 +3124,17 @@
       <c r="E8" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="9" t="s">
         <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>225</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>238</v>
+        <v>144</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>157</v>
       </c>
       <c r="I8" t="s">
-        <v>239</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -4635,7 +3142,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -4646,17 +3153,17 @@
       <c r="E9" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>240</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>241</v>
+        <v>159</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>160</v>
       </c>
       <c r="I9" t="s">
-        <v>242</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -4664,7 +3171,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
@@ -4675,17 +3182,17 @@
       <c r="E10" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>243</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>244</v>
+        <v>162</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>163</v>
       </c>
       <c r="I10" t="s">
-        <v>245</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -4693,7 +3200,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
@@ -4704,17 +3211,17 @@
       <c r="E11" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="9" t="s">
         <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>228</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>246</v>
+        <v>147</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="I11" t="s">
-        <v>247</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4722,7 +3229,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
@@ -4733,17 +3240,17 @@
       <c r="E12" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="9" t="s">
         <v>25</v>
       </c>
       <c r="G12" t="s">
-        <v>243</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>248</v>
+        <v>162</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>167</v>
       </c>
       <c r="I12" t="s">
-        <v>249</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4751,7 +3258,7 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
@@ -4762,17 +3269,17 @@
       <c r="E13" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="9" t="s">
         <v>29</v>
       </c>
       <c r="G13" t="s">
-        <v>228</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>250</v>
+        <v>147</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>169</v>
       </c>
       <c r="I13" t="s">
-        <v>251</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4780,7 +3287,7 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
@@ -4791,17 +3298,17 @@
       <c r="E14" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="9" t="s">
         <v>33</v>
       </c>
       <c r="G14" t="s">
         <v>115</v>
       </c>
-      <c r="H14" s="13" t="s">
-        <v>252</v>
+      <c r="H14" s="9" t="s">
+        <v>171</v>
       </c>
       <c r="I14" t="s">
-        <v>253</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4809,7 +3316,7 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
@@ -4820,17 +3327,17 @@
       <c r="E15" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="9" t="s">
         <v>37</v>
       </c>
       <c r="G15" t="s">
         <v>115</v>
       </c>
-      <c r="H15" s="13" t="s">
-        <v>254</v>
+      <c r="H15" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="I15" t="s">
-        <v>255</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -4838,7 +3345,7 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
@@ -4849,17 +3356,17 @@
       <c r="E16" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G16" t="s">
         <v>115</v>
       </c>
-      <c r="H16" s="13" t="s">
-        <v>256</v>
+      <c r="H16" s="9" t="s">
+        <v>175</v>
       </c>
       <c r="I16" t="s">
-        <v>257</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -4867,7 +3374,7 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
@@ -4878,17 +3385,17 @@
       <c r="E17" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G17" t="s">
-        <v>258</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>259</v>
+        <v>177</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="I17" t="s">
-        <v>260</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -4896,7 +3403,7 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
@@ -4907,17 +3414,17 @@
       <c r="E18" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="9" t="s">
         <v>21</v>
       </c>
       <c r="G18" t="s">
-        <v>228</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>261</v>
+        <v>147</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>180</v>
       </c>
       <c r="I18" t="s">
-        <v>262</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -4925,7 +3432,7 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
@@ -4936,17 +3443,17 @@
       <c r="E19" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="9" t="s">
         <v>25</v>
       </c>
       <c r="G19" t="s">
-        <v>263</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>264</v>
+        <v>182</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>183</v>
       </c>
       <c r="I19" t="s">
-        <v>265</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -4954,7 +3461,7 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
@@ -4965,17 +3472,17 @@
       <c r="E20" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="9" t="s">
         <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>228</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>266</v>
+        <v>147</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>185</v>
       </c>
       <c r="I20" t="s">
-        <v>267</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -4983,7 +3490,7 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
@@ -4994,17 +3501,17 @@
       <c r="E21" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="9" t="s">
         <v>33</v>
       </c>
       <c r="G21" t="s">
         <v>115</v>
       </c>
-      <c r="H21" s="13" t="s">
-        <v>268</v>
+      <c r="H21" s="9" t="s">
+        <v>187</v>
       </c>
       <c r="I21" t="s">
-        <v>269</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -5012,7 +3519,7 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
@@ -5023,17 +3530,17 @@
       <c r="E22" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="9" t="s">
         <v>37</v>
       </c>
       <c r="G22" t="s">
-        <v>225</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>270</v>
+        <v>144</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>189</v>
       </c>
       <c r="I22" t="s">
-        <v>271</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -5041,7 +3548,7 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
@@ -5052,17 +3559,17 @@
       <c r="E23" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G23" t="s">
-        <v>231</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>272</v>
+        <v>150</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>191</v>
       </c>
       <c r="I23" t="s">
-        <v>273</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -5070,7 +3577,7 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
@@ -5081,17 +3588,17 @@
       <c r="E24" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G24" t="s">
-        <v>233</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>274</v>
+        <v>152</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>193</v>
       </c>
       <c r="I24" t="s">
-        <v>275</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -5099,7 +3606,7 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
@@ -5110,17 +3617,17 @@
       <c r="E25" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="9" t="s">
         <v>21</v>
       </c>
       <c r="G25" t="s">
         <v>115</v>
       </c>
-      <c r="H25" s="13" t="s">
-        <v>276</v>
+      <c r="H25" s="9" t="s">
+        <v>195</v>
       </c>
       <c r="I25" t="s">
-        <v>277</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -5128,7 +3635,7 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
@@ -5139,17 +3646,17 @@
       <c r="E26" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="9" t="s">
         <v>25</v>
       </c>
       <c r="G26" t="s">
-        <v>231</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>278</v>
+        <v>150</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>197</v>
       </c>
       <c r="I26" t="s">
-        <v>279</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -5157,7 +3664,7 @@
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
@@ -5168,17 +3675,17 @@
       <c r="E27" t="s">
         <v>12</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="9" t="s">
         <v>29</v>
       </c>
       <c r="G27" t="s">
-        <v>240</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>280</v>
+        <v>159</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>199</v>
       </c>
       <c r="I27" t="s">
-        <v>281</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -5186,7 +3693,7 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
@@ -5197,17 +3704,17 @@
       <c r="E28" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="9" t="s">
         <v>33</v>
       </c>
       <c r="G28" t="s">
         <v>115</v>
       </c>
-      <c r="H28" s="13" t="s">
-        <v>282</v>
+      <c r="H28" s="9" t="s">
+        <v>201</v>
       </c>
       <c r="I28" t="s">
-        <v>283</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -5215,7 +3722,7 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C29" t="s">
         <v>10</v>
@@ -5226,17 +3733,17 @@
       <c r="E29" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="9" t="s">
         <v>37</v>
       </c>
       <c r="G29" t="s">
         <v>115</v>
       </c>
-      <c r="H29" s="13" t="s">
-        <v>284</v>
+      <c r="H29" s="9" t="s">
+        <v>203</v>
       </c>
       <c r="I29" t="s">
-        <v>285</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -5244,7 +3751,7 @@
         <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
@@ -5255,17 +3762,17 @@
       <c r="E30" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="F30" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G30" t="s">
         <v>115</v>
       </c>
-      <c r="H30" s="13" t="s">
-        <v>286</v>
+      <c r="H30" s="9" t="s">
+        <v>205</v>
       </c>
       <c r="I30" t="s">
-        <v>287</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -5273,7 +3780,7 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C31" t="s">
         <v>10</v>
@@ -5284,17 +3791,17 @@
       <c r="E31" t="s">
         <v>12</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G31" t="s">
-        <v>258</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>288</v>
+        <v>177</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>207</v>
       </c>
       <c r="I31" t="s">
-        <v>289</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -5302,7 +3809,7 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C32" t="s">
         <v>10</v>
@@ -5313,17 +3820,17 @@
       <c r="E32" t="s">
         <v>12</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="9" t="s">
         <v>21</v>
       </c>
       <c r="G32" t="s">
-        <v>228</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>290</v>
+        <v>147</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>209</v>
       </c>
       <c r="I32" t="s">
-        <v>291</v>
+        <v>210</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -5331,7 +3838,7 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C33" t="s">
         <v>10</v>
@@ -5342,17 +3849,17 @@
       <c r="E33" t="s">
         <v>12</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="9" t="s">
         <v>25</v>
       </c>
       <c r="G33" t="s">
-        <v>243</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>292</v>
+        <v>162</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>211</v>
       </c>
       <c r="I33" t="s">
-        <v>293</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -5360,7 +3867,7 @@
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C34" t="s">
         <v>10</v>
@@ -5371,17 +3878,17 @@
       <c r="E34" t="s">
         <v>12</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F34" s="9" t="s">
         <v>29</v>
       </c>
       <c r="G34" t="s">
-        <v>233</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>294</v>
+        <v>152</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>213</v>
       </c>
       <c r="I34" t="s">
-        <v>295</v>
+        <v>214</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -5389,7 +3896,7 @@
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C35" t="s">
         <v>10</v>
@@ -5400,1020 +3907,34 @@
       <c r="E35" t="s">
         <v>12</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F35" s="9" t="s">
         <v>33</v>
       </c>
       <c r="G35" t="s">
         <v>115</v>
       </c>
-      <c r="H35" s="13" t="s">
-        <v>296</v>
+      <c r="H35" s="9" t="s">
+        <v>215</v>
       </c>
       <c r="I35" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="36" s="7" customFormat="1" spans="1:9">
-      <c r="A36" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="C36" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="37" s="8" customFormat="1" spans="1:9">
-      <c r="A37" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="38" s="8" customFormat="1" spans="1:9">
-      <c r="A38" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C38" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="39" s="8" customFormat="1" spans="1:9">
-      <c r="A39" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="40" s="8" customFormat="1" spans="1:9">
-      <c r="A40" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C40" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="I40" s="8" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="41" s="8" customFormat="1" spans="1:9">
-      <c r="A41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="I41" s="8" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="42" s="8" customFormat="1" spans="1:9">
-      <c r="A42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C42" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="I42" s="8" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="43" s="8" customFormat="1" spans="1:9">
-      <c r="A43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C43" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="44" s="8" customFormat="1" spans="1:9">
-      <c r="A44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C44" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="H44" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="I44" s="8" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="45" s="8" customFormat="1" spans="1:9">
-      <c r="A45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C45" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="H45" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="I45" s="8" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="46" s="8" customFormat="1" spans="1:9">
-      <c r="A46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C46" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="H46" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="I46" s="8" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="47" s="8" customFormat="1" spans="1:9">
-      <c r="A47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C47" t="s">
-        <v>10</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="H47" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="I47" s="8" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="48" s="8" customFormat="1" spans="1:9">
-      <c r="A48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C48" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="H48" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="I48" s="8" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="49" s="8" customFormat="1" spans="1:9">
-      <c r="A49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C49" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="H49" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="I49" s="8" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="50" s="8" customFormat="1" spans="1:9">
-      <c r="A50" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C50" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="H50" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="I50" s="8" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="51" s="8" customFormat="1" spans="1:9">
-      <c r="A51" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C51" t="s">
-        <v>10</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="H51" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="I51" s="8" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="52" s="8" customFormat="1" spans="1:9">
-      <c r="A52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C52" t="s">
-        <v>10</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="H52" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="I52" s="8" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="53" s="8" customFormat="1" spans="1:9">
-      <c r="A53" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C53" t="s">
-        <v>10</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G53" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="H53" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="I53" s="8" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="54" s="8" customFormat="1" spans="1:9">
-      <c r="A54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C54" t="s">
-        <v>10</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="H54" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="I54" s="8" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="55" s="8" customFormat="1" spans="1:9">
-      <c r="A55" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C55" t="s">
-        <v>10</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G55" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="H55" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="I55" s="8" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="56" s="8" customFormat="1" spans="1:9">
-      <c r="A56" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C56" t="s">
-        <v>10</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G56" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="H56" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="I56" s="8" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="57" s="8" customFormat="1" spans="1:9">
-      <c r="A57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C57" t="s">
-        <v>10</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F57" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G57" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="H57" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="I57" s="8" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="58" s="8" customFormat="1" spans="1:9">
-      <c r="A58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C58" t="s">
-        <v>10</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G58" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="H58" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="I58" s="8" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="59" s="8" customFormat="1" spans="1:9">
-      <c r="A59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C59" t="s">
-        <v>10</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G59" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="H59" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="I59" s="8" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="60" s="8" customFormat="1" spans="1:9">
-      <c r="A60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C60" t="s">
-        <v>10</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G60" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="H60" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="I60" s="8" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="61" s="8" customFormat="1" spans="1:9">
-      <c r="A61" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C61" t="s">
-        <v>10</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G61" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="H61" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="I61" s="8" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="62" s="8" customFormat="1" spans="1:9">
-      <c r="A62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C62" t="s">
-        <v>10</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G62" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="H62" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="I62" s="8" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="63" s="8" customFormat="1" spans="1:9">
-      <c r="A63" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C63" t="s">
-        <v>10</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F63" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G63" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="H63" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="I63" s="8" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="64" s="8" customFormat="1" spans="1:9">
-      <c r="A64" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C64" t="s">
-        <v>10</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F64" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="H64" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="I64" s="8" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="65" s="8" customFormat="1" spans="1:9">
-      <c r="A65" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C65" t="s">
-        <v>10</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G65" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="H65" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="I65" s="8" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="66" s="8" customFormat="1" spans="1:9">
-      <c r="A66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C66" t="s">
-        <v>10</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F66" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G66" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="H66" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="I66" s="8" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="67" s="8" customFormat="1" spans="1:9">
-      <c r="A67" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C67" t="s">
-        <v>10</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G67" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="H67" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="I67" s="8" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="68" s="8" customFormat="1" spans="1:9">
-      <c r="A68" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C68" t="s">
-        <v>10</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="E68" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F68" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G68" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="H68" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="I68" s="8" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="69" s="8" customFormat="1" spans="1:9">
-      <c r="A69" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C69" t="s">
-        <v>10</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G69" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="H69" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="I69" s="8" t="s">
-        <v>364</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3 B4 B5 B6 B7 B8 B9 B10 B11 B12 B13 B14 B15 B16 B17 B18 B19 B20 B21 B22 B23 B24 B25 B26 B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B49 B50 B51 B52 B53 B54 B55 B56 B57 B58 B59 B60 B61 B62 B63 B64 B65 B66 B67 B68 B69">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3 B4 B5 B6 B7 B8 B9 B10 B11 B12 B13 B14 B15 B16 B17 B18 B19 B20 B21 B22 B23 B24 B25 B26 B27 B28 B29 B30 B31 B32 B33 B34 B35">
       <formula1>"普票,专票"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D36 D3:D33 D34:D35 D37:D67 D68:D69">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3:D33 D34:D35">
       <formula1>"福利费,劳务费,招待费,办公费,快递费,通讯费,维修费,财产保险费,设备租赁费,银行费用,差旅费,交通费,汽油费,路桥费,汽车维修费,汽车保险,物流费,房租费,物业费,水费,电费,仓储费,装修费,广告费,宣传费,研发费,会议费,服务费,咨询费,认证费,专利费,工会经费,其他,行政罚款,税务滞纳金,印花税,残保金,减免税款,原材料,商品产品"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3 E4:E5 E6:E7 E8:E9 E10:E11 E12:E13 E14:E15 E16:E17 E18:E19 E20:E21 E22:E23 E24:E25 E26:E27 E28:E29 E30:E31 E32:E33 E34:E35 E36:E37 E38:E39 E40:E41 E42:E43 E44:E45 E46:E47 E48:E49 E50:E51 E52:E53 E54:E55 E56:E57 E58:E59 E60:E61 E62:E63 E64:E65 E66:E67 E68:E69">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3 E4:E5 E6:E7 E8:E9 E10:E11 E12:E13 E14:E15 E16:E17 E18:E19 E20:E21 E22:E23 E24:E25 E26:E27 E28:E29 E30:E31 E32:E33 E34:E35">
       <formula1>"销售部门,管理部门"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F8 F9:F15 F16:F22 F23:F29 F30:F35 F36:F42 F43:F49 F50:F56 F57:F63 F64:F69">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F8 F9:F15 F16:F22 F23:F29 F30:F35">
       <formula1>"'1.5%,'3%,'5%,'6%,'11%,'13%,'17%"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G35 G36:G69">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G35">
       <formula1>"有形动产租赁,其他,运输服务,电信服务,建筑安装服务,不动产租赁服务,金融保险服务,生活服务,货物及加工，修理修配劳务"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6428,8 +3949,8 @@
   <sheetPr/>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6447,10 +3968,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>220</v>
+        <v>139</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>365</v>
+        <v>217</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -6479,25 +4000,25 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>366</v>
+        <v>218</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>367</v>
+        <v>219</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="13" t="s">
-        <v>368</v>
+      <c r="H2" s="9" t="s">
+        <v>220</v>
       </c>
       <c r="I2" t="s">
-        <v>369</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -6508,25 +4029,25 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>370</v>
+        <v>222</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>371</v>
+        <v>223</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>372</v>
+      <c r="H3" s="9" t="s">
+        <v>224</v>
       </c>
       <c r="I3" t="s">
-        <v>373</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -6534,28 +4055,28 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C4" t="s">
-        <v>366</v>
+        <v>218</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>367</v>
+        <v>219</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="13" t="s">
-        <v>374</v>
+      <c r="H4" s="9" t="s">
+        <v>226</v>
       </c>
       <c r="I4" t="s">
-        <v>375</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -6563,28 +4084,28 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" t="s">
         <v>222</v>
       </c>
-      <c r="C5" t="s">
-        <v>370</v>
-      </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>371</v>
+        <v>223</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="13" t="s">
-        <v>376</v>
+      <c r="H5" s="9" t="s">
+        <v>228</v>
       </c>
       <c r="I5" t="s">
-        <v>377</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -6592,28 +4113,28 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>378</v>
+        <v>230</v>
       </c>
       <c r="C6" t="s">
-        <v>379</v>
+        <v>231</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>367</v>
+        <v>219</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="13" t="s">
-        <v>380</v>
+      <c r="H6" s="9" t="s">
+        <v>232</v>
       </c>
       <c r="I6" t="s">
-        <v>381</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -6621,28 +4142,28 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>378</v>
+        <v>230</v>
       </c>
       <c r="C7" t="s">
-        <v>379</v>
+        <v>231</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>371</v>
+        <v>223</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="13" t="s">
-        <v>382</v>
+      <c r="H7" s="9" t="s">
+        <v>234</v>
       </c>
       <c r="I7" t="s">
-        <v>383</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:9">
@@ -6653,25 +4174,25 @@
         <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>366</v>
+        <v>218</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>367</v>
+        <v>219</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G8" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="16" t="s">
-        <v>384</v>
+      <c r="H8" s="12" t="s">
+        <v>237</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>385</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -6682,25 +4203,25 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>370</v>
+        <v>222</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>371</v>
+        <v>223</v>
       </c>
       <c r="F9" t="s">
-        <v>139</v>
-      </c>
-      <c r="G9" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="13" t="s">
-        <v>386</v>
+      <c r="H9" s="9" t="s">
+        <v>239</v>
       </c>
       <c r="I9" t="s">
-        <v>387</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -6708,28 +4229,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C10" t="s">
-        <v>366</v>
+        <v>218</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>367</v>
+        <v>219</v>
       </c>
       <c r="F10" t="s">
-        <v>139</v>
-      </c>
-      <c r="G10" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="13" t="s">
-        <v>388</v>
+      <c r="H10" s="9" t="s">
+        <v>241</v>
       </c>
       <c r="I10" t="s">
-        <v>389</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -6737,28 +4258,28 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" t="s">
         <v>222</v>
       </c>
-      <c r="C11" t="s">
-        <v>370</v>
-      </c>
       <c r="D11" t="s">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>371</v>
+        <v>223</v>
       </c>
       <c r="F11" t="s">
-        <v>139</v>
-      </c>
-      <c r="G11" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="13" t="s">
-        <v>390</v>
+      <c r="H11" s="9" t="s">
+        <v>243</v>
       </c>
       <c r="I11" t="s">
-        <v>391</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -6766,28 +4287,28 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>378</v>
+        <v>230</v>
       </c>
       <c r="C12" t="s">
-        <v>379</v>
+        <v>231</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>367</v>
+        <v>219</v>
       </c>
       <c r="F12" t="s">
-        <v>139</v>
-      </c>
-      <c r="G12" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="13" t="s">
-        <v>392</v>
+      <c r="H12" s="9" t="s">
+        <v>245</v>
       </c>
       <c r="I12" t="s">
-        <v>393</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -6795,28 +4316,28 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>378</v>
+        <v>230</v>
       </c>
       <c r="C13" t="s">
-        <v>379</v>
+        <v>231</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>371</v>
+        <v>223</v>
       </c>
       <c r="F13" t="s">
-        <v>139</v>
-      </c>
-      <c r="G13" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="13" t="s">
-        <v>394</v>
+      <c r="H13" s="9" t="s">
+        <v>247</v>
       </c>
       <c r="I13" t="s">
-        <v>395</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/发票.xlsx
+++ b/test_data/发票.xlsx
@@ -4,19 +4,38 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="14070" activeTab="2"/>
+    <workbookView windowWidth="28080" windowHeight="14070"/>
   </bookViews>
   <sheets>
-    <sheet name="记收普票测试数据" sheetId="1" r:id="rId1"/>
-    <sheet name="记收专票测试数据" sheetId="2" r:id="rId2"/>
-    <sheet name="记开票测试数据" sheetId="3" r:id="rId3"/>
+    <sheet name="说明" sheetId="4" r:id="rId1"/>
+    <sheet name="记收普票测试数据" sheetId="1" r:id="rId2"/>
+    <sheet name="记收专票测试数据" sheetId="2" r:id="rId3"/>
+    <sheet name="记开票测试数据" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255">
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>记录数目</t>
+  </si>
+  <si>
+    <t>收票-普票</t>
+  </si>
+  <si>
+    <t>收票-专票</t>
+  </si>
+  <si>
+    <t>开票</t>
+  </si>
+  <si>
+    <t>总计</t>
+  </si>
   <si>
     <t>记账日期</t>
   </si>
@@ -772,8 +791,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -792,9 +811,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -815,47 +888,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -875,6 +911,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -882,17 +919,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -905,32 +933,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -957,7 +976,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -969,145 +1042,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1125,13 +1060,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1161,6 +1180,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1175,28 +1209,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1206,15 +1223,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1237,8 +1245,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1250,10 +1269,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1262,137 +1281,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1415,6 +1434,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
@@ -1780,9 +1802,75 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="24" customHeight="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" ht="19" customHeight="1" spans="1:2">
+      <c r="A2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" ht="19" customHeight="1" spans="1:2">
+      <c r="A3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" ht="19" customHeight="1" spans="1:2">
+      <c r="A4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" ht="19" customHeight="1" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <f>SUM(B2:B4)</f>
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" location="记收普票测试数据!A1" display="收票-普票"/>
+    <hyperlink ref="A3" location="记收专票测试数据!A1" display="收票-专票"/>
+    <hyperlink ref="A4" location="记开票测试数据!A1" display="开票"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
@@ -1797,1068 +1885,1068 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>18</v>
+        <v>18</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>26</v>
+        <v>18</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>30</v>
+        <v>18</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>34</v>
+        <v>18</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="H7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>38</v>
+        <v>18</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="H8" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>41</v>
+        <v>18</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>44</v>
+        <v>18</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>47</v>
+        <v>18</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>50</v>
+        <v>18</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>56</v>
       </c>
       <c r="H12" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>53</v>
+        <v>18</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="H13" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>56</v>
+        <v>18</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="H14" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>59</v>
+        <v>18</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="H15" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>62</v>
+        <v>18</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="H16" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>65</v>
+        <v>18</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="H17" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>68</v>
+        <v>18</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="H18" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>71</v>
+        <v>18</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="H19" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>74</v>
+        <v>18</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="H20" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>77</v>
+        <v>18</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="H21" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>80</v>
+        <v>18</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>86</v>
       </c>
       <c r="H22" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>83</v>
+        <v>18</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="H23" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>86</v>
+        <v>18</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="H24" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>89</v>
+        <v>18</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="H25" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>92</v>
+        <v>18</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="H26" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E27" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>95</v>
+        <v>18</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>101</v>
       </c>
       <c r="H27" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E28" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>98</v>
+        <v>18</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="H28" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E29" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>101</v>
+        <v>18</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="H29" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E30" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>104</v>
+        <v>18</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>110</v>
       </c>
       <c r="H30" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>107</v>
+        <v>18</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>113</v>
       </c>
       <c r="H31" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E32" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>110</v>
+        <v>18</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>116</v>
       </c>
       <c r="H32" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E33" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>113</v>
+        <v>18</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>119</v>
       </c>
       <c r="H33" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E34" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>116</v>
+        <v>18</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>122</v>
       </c>
       <c r="H34" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E35" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>119</v>
+        <v>18</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>125</v>
       </c>
       <c r="H35" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E36" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>122</v>
+        <v>18</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>128</v>
       </c>
       <c r="H36" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E37" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>125</v>
+        <v>18</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>131</v>
       </c>
       <c r="H37" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E38" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>128</v>
+        <v>18</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>134</v>
       </c>
       <c r="H38" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D39" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E39" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>131</v>
+        <v>18</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>137</v>
       </c>
       <c r="H39" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C40" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E40" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>134</v>
+        <v>18</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>140</v>
       </c>
       <c r="H40" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E41" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>137</v>
+        <v>18</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>143</v>
       </c>
       <c r="H41" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2885,13 +2973,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A36" sqref="$A36:$XFD69"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2907,1017 +2995,1017 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>115</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>142</v>
+        <v>121</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>148</v>
       </c>
       <c r="I2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>145</v>
+        <v>150</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>151</v>
       </c>
       <c r="I3" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>147</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>148</v>
+        <v>153</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>154</v>
       </c>
       <c r="I4" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>25</v>
+        <v>18</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>150</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>151</v>
+        <v>156</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>157</v>
       </c>
       <c r="I5" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>29</v>
+        <v>18</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>152</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>153</v>
+        <v>158</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>159</v>
       </c>
       <c r="I6" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>33</v>
+        <v>18</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="G7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>155</v>
+        <v>121</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>161</v>
       </c>
       <c r="I7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>37</v>
+        <v>18</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="G8" t="s">
-        <v>144</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>163</v>
       </c>
       <c r="I8" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="G9" t="s">
-        <v>159</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>160</v>
+        <v>165</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>166</v>
       </c>
       <c r="I9" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="G10" t="s">
-        <v>162</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>163</v>
+        <v>168</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>169</v>
       </c>
       <c r="I10" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="G11" t="s">
-        <v>147</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>165</v>
+        <v>153</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>171</v>
       </c>
       <c r="I11" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>25</v>
+        <v>18</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="G12" t="s">
-        <v>162</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>173</v>
       </c>
       <c r="I12" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>29</v>
+        <v>18</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="G13" t="s">
-        <v>147</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>169</v>
+        <v>153</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>175</v>
       </c>
       <c r="I13" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>33</v>
+        <v>18</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>115</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>171</v>
+        <v>121</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>177</v>
       </c>
       <c r="I14" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>37</v>
+        <v>18</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="G15" t="s">
-        <v>115</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>173</v>
+        <v>121</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>179</v>
       </c>
       <c r="I15" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="G16" t="s">
-        <v>115</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>175</v>
+        <v>121</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>181</v>
       </c>
       <c r="I16" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="G17" t="s">
-        <v>177</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>178</v>
+        <v>183</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>184</v>
       </c>
       <c r="I17" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="G18" t="s">
-        <v>147</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>180</v>
+        <v>153</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>186</v>
       </c>
       <c r="I18" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>25</v>
+        <v>18</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>182</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>183</v>
+        <v>188</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>189</v>
       </c>
       <c r="I19" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>29</v>
+        <v>18</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>147</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>185</v>
+        <v>153</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>191</v>
       </c>
       <c r="I20" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>33</v>
+        <v>18</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="G21" t="s">
-        <v>115</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>187</v>
+        <v>121</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>193</v>
       </c>
       <c r="I21" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>37</v>
+        <v>18</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="G22" t="s">
-        <v>144</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>189</v>
+        <v>150</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>195</v>
       </c>
       <c r="I22" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="G23" t="s">
-        <v>150</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>191</v>
+        <v>156</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>197</v>
       </c>
       <c r="I23" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="G24" t="s">
-        <v>152</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>193</v>
+        <v>158</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>199</v>
       </c>
       <c r="I24" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="G25" t="s">
-        <v>115</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>195</v>
+        <v>121</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>201</v>
       </c>
       <c r="I25" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>25</v>
+        <v>18</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>150</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>197</v>
+        <v>156</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>203</v>
       </c>
       <c r="I26" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E27" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>29</v>
+        <v>18</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>159</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>199</v>
+        <v>165</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>205</v>
       </c>
       <c r="I27" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C28" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E28" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>33</v>
+        <v>18</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="G28" t="s">
-        <v>115</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>201</v>
+        <v>121</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>207</v>
       </c>
       <c r="I28" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C29" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E29" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>37</v>
+        <v>18</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="G29" t="s">
-        <v>115</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>203</v>
+        <v>121</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>209</v>
       </c>
       <c r="I29" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E30" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="G30" t="s">
-        <v>115</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>205</v>
+        <v>121</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>211</v>
       </c>
       <c r="I30" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="G31" t="s">
-        <v>177</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>207</v>
+        <v>183</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>213</v>
       </c>
       <c r="I31" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C32" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E32" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="G32" t="s">
-        <v>147</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>209</v>
+        <v>153</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>215</v>
       </c>
       <c r="I32" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C33" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E33" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>25</v>
+        <v>18</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="G33" t="s">
-        <v>162</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>211</v>
+        <v>168</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>217</v>
       </c>
       <c r="I33" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C34" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E34" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>29</v>
+        <v>18</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="G34" t="s">
-        <v>152</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>213</v>
+        <v>158</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>219</v>
       </c>
       <c r="I34" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E35" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>33</v>
+        <v>18</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="G35" t="s">
-        <v>115</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>215</v>
+        <v>121</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>221</v>
       </c>
       <c r="I35" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -3944,12 +4032,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -3965,379 +4053,379 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>220</v>
+        <v>18</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>226</v>
       </c>
       <c r="I2" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>224</v>
+        <v>18</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>230</v>
       </c>
       <c r="I3" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C4" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>226</v>
+        <v>18</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>232</v>
       </c>
       <c r="I4" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C5" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>228</v>
+        <v>18</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>234</v>
       </c>
       <c r="I5" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C6" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>232</v>
+        <v>18</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>238</v>
       </c>
       <c r="I6" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>234</v>
+        <v>18</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>240</v>
       </c>
       <c r="I7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:9">
       <c r="A8" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>237</v>
+        <v>242</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>243</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="F9" t="s">
-        <v>236</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>239</v>
+        <v>242</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>245</v>
       </c>
       <c r="I9" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F10" t="s">
-        <v>236</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>241</v>
+        <v>242</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>247</v>
       </c>
       <c r="I10" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C11" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="F11" t="s">
-        <v>236</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>249</v>
       </c>
       <c r="I11" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C12" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F12" t="s">
-        <v>236</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>245</v>
+        <v>242</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>251</v>
       </c>
       <c r="I12" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C13" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="F13" t="s">
-        <v>236</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>247</v>
+        <v>242</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>253</v>
       </c>
       <c r="I13" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
